--- a/Files/Controls.xlsx
+++ b/Files/Controls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl-Otto\Documents\src\NVDA\vismaadministration-nvdaaddon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl-Otto\Documents\src\NVDA\VismaAdministration\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F26F91-2C72-47C2-B7B3-D32252871933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E157496-2BE6-48EB-BCF8-DA1D31F7C038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="16876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,30 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="459">
   <si>
     <t>WindowClassName</t>
   </si>
@@ -552,9 +530,6 @@
     <t>Telefon 2</t>
   </si>
   <si>
-    <t>Fax</t>
-  </si>
-  <si>
     <t>Mobiltelefon</t>
   </si>
   <si>
@@ -678,9 +653,6 @@
     <t>Avvikande Leveransadress, telefon 3</t>
   </si>
   <si>
-    <t>Avvikande Leveransadress, fax</t>
-  </si>
-  <si>
     <t>Kundkategori</t>
   </si>
   <si>
@@ -1408,6 +1380,36 @@
   </si>
   <si>
     <t>Extra referenskod</t>
+  </si>
+  <si>
+    <t>Inställningar</t>
+  </si>
+  <si>
+    <t>Säte</t>
+  </si>
+  <si>
+    <t>Hemsida</t>
+  </si>
+  <si>
+    <t>Konto till bankgiro:</t>
+  </si>
+  <si>
+    <t>Branschkod (SNI)</t>
+  </si>
+  <si>
+    <t>VAT/Momsregistreringsnummer</t>
+  </si>
+  <si>
+    <t>Inhemskt språk</t>
+  </si>
+  <si>
+    <t>Inhemsk valuta</t>
+  </si>
+  <si>
+    <t>Koncernens orgnr:</t>
+  </si>
+  <si>
+    <t>Avvikande Leveransadress, Telefon 3</t>
   </si>
 </sst>
 </file>
@@ -1725,15 +1727,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E510"/>
+  <dimension ref="A1:E533"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D510" sqref="A1:E510"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="A534" sqref="A534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="26.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -1741,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1761,7 +1764,7 @@
         <v>7407</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -1775,10 +1778,10 @@
         <v>7407</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1789,10 +1792,10 @@
         <v>21346</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1803,10 +1806,10 @@
         <v>21346</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1817,10 +1820,10 @@
         <v>21346</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1831,10 +1834,10 @@
         <v>21346</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1845,10 +1848,10 @@
         <v>21346</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1859,10 +1862,10 @@
         <v>21211</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1873,10 +1876,10 @@
         <v>21346</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1887,10 +1890,10 @@
         <v>21346</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1901,10 +1904,10 @@
         <v>21516</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1915,10 +1918,10 @@
         <v>21516</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1929,10 +1932,10 @@
         <v>21516</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1943,10 +1946,10 @@
         <v>21516</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1957,10 +1960,10 @@
         <v>21516</v>
       </c>
       <c r="C16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1971,10 +1974,10 @@
         <v>21516</v>
       </c>
       <c r="C17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1985,10 +1988,10 @@
         <v>21516</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1999,10 +2002,10 @@
         <v>21577</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -2013,10 +2016,10 @@
         <v>21629</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -2027,10 +2030,10 @@
         <v>24693</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -2041,10 +2044,10 @@
         <v>21666</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -2055,25 +2058,24 @@
         <v>21769</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="e" cm="1">
-        <f t="array" ref="A24">-SafGrid</f>
+      <c r="A24" t="e">
         <v>#NAME?</v>
       </c>
       <c r="B24">
         <v>21679</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -2084,10 +2086,10 @@
         <v>21666</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -2098,10 +2100,10 @@
         <v>21666</v>
       </c>
       <c r="C26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -2134,7 +2136,7 @@
         <v>7221</v>
       </c>
       <c r="D29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -2145,7 +2147,7 @@
         <v>23569</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -2156,10 +2158,10 @@
         <v>21346</v>
       </c>
       <c r="C31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -2170,7 +2172,7 @@
         <v>59648</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -2393,7 +2395,7 @@
         <v>20593</v>
       </c>
       <c r="D52" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
@@ -2578,7 +2580,7 @@
         <v>22308</v>
       </c>
       <c r="C68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D68" t="s">
         <v>52</v>
@@ -2595,7 +2597,7 @@
         <v>22308</v>
       </c>
       <c r="C69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D69" t="s">
         <v>53</v>
@@ -2609,7 +2611,7 @@
         <v>22308</v>
       </c>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
@@ -2741,7 +2743,7 @@
         <v>22316</v>
       </c>
       <c r="C82" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D82" t="s">
         <v>65</v>
@@ -2755,7 +2757,7 @@
         <v>22316</v>
       </c>
       <c r="C83" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D83" t="s">
         <v>66</v>
@@ -2769,7 +2771,7 @@
         <v>22316</v>
       </c>
       <c r="C84" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D84" t="s">
         <v>67</v>
@@ -2783,7 +2785,7 @@
         <v>22317</v>
       </c>
       <c r="C85" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D85" t="s">
         <v>68</v>
@@ -2797,7 +2799,7 @@
         <v>22317</v>
       </c>
       <c r="C86" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D86" t="s">
         <v>69</v>
@@ -2811,7 +2813,7 @@
         <v>22317</v>
       </c>
       <c r="C87" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D87" t="s">
         <v>70</v>
@@ -2957,7 +2959,7 @@
         <v>22314</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D100" t="s">
         <v>82</v>
@@ -2971,7 +2973,7 @@
         <v>22314</v>
       </c>
       <c r="C101" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D101" t="s">
         <v>83</v>
@@ -3029,7 +3031,7 @@
         <v>24932</v>
       </c>
       <c r="C106" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D106" t="s">
         <v>88</v>
@@ -3043,7 +3045,7 @@
         <v>24932</v>
       </c>
       <c r="C107" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D107" t="s">
         <v>89</v>
@@ -3478,7 +3480,7 @@
         <v>22378</v>
       </c>
       <c r="C146" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D146" t="s">
         <v>129</v>
@@ -3495,7 +3497,7 @@
         <v>22378</v>
       </c>
       <c r="C147" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D147" t="s">
         <v>130</v>
@@ -3685,7 +3687,7 @@
         <v>22309</v>
       </c>
       <c r="C164" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D164" t="s">
         <v>148</v>
@@ -3702,7 +3704,7 @@
         <v>22309</v>
       </c>
       <c r="C165" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D165" t="s">
         <v>149</v>
@@ -3716,7 +3718,7 @@
         <v>22310</v>
       </c>
       <c r="C166" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D166" t="s">
         <v>150</v>
@@ -3730,7 +3732,7 @@
         <v>22310</v>
       </c>
       <c r="C167" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D167" t="s">
         <v>151</v>
@@ -3744,7 +3746,7 @@
         <v>22311</v>
       </c>
       <c r="C168" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D168" t="s">
         <v>152</v>
@@ -3758,7 +3760,7 @@
         <v>22311</v>
       </c>
       <c r="C169" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D169" t="s">
         <v>153</v>
@@ -3998,7 +4000,7 @@
         <v>23189</v>
       </c>
       <c r="D190" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
@@ -4031,7 +4033,7 @@
         <v>20748</v>
       </c>
       <c r="D193" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
@@ -4042,7 +4044,7 @@
         <v>24921</v>
       </c>
       <c r="D194" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
@@ -4053,7 +4055,7 @@
         <v>23228</v>
       </c>
       <c r="D195" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
@@ -4064,7 +4066,7 @@
         <v>23229</v>
       </c>
       <c r="D196" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
@@ -4108,7 +4110,7 @@
         <v>26256</v>
       </c>
       <c r="D200" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
@@ -4119,7 +4121,7 @@
         <v>23230</v>
       </c>
       <c r="D201" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
@@ -4130,7 +4132,7 @@
         <v>23220</v>
       </c>
       <c r="D202" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
@@ -4141,7 +4143,7 @@
         <v>23196</v>
       </c>
       <c r="D203" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
@@ -4152,7 +4154,7 @@
         <v>23194</v>
       </c>
       <c r="D204" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
@@ -4163,7 +4165,7 @@
         <v>23195</v>
       </c>
       <c r="D205" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
@@ -4174,7 +4176,7 @@
         <v>21770</v>
       </c>
       <c r="D206" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
@@ -4207,7 +4209,7 @@
         <v>23197</v>
       </c>
       <c r="D209" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
@@ -4240,7 +4242,7 @@
         <v>26598</v>
       </c>
       <c r="D212" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
@@ -4317,7 +4319,7 @@
         <v>24920</v>
       </c>
       <c r="D219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
@@ -4328,10 +4330,10 @@
         <v>23213</v>
       </c>
       <c r="D220" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E220" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
@@ -4342,7 +4344,7 @@
         <v>23214</v>
       </c>
       <c r="D221" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
@@ -4353,7 +4355,7 @@
         <v>23215</v>
       </c>
       <c r="D222" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
@@ -4364,7 +4366,7 @@
         <v>23216</v>
       </c>
       <c r="D223" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
@@ -4408,7 +4410,7 @@
         <v>23211</v>
       </c>
       <c r="D227" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
@@ -4419,7 +4421,7 @@
         <v>23212</v>
       </c>
       <c r="D228" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
@@ -4430,7 +4432,7 @@
         <v>23590</v>
       </c>
       <c r="D229" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
@@ -4441,7 +4443,7 @@
         <v>23231</v>
       </c>
       <c r="D230" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.45">
@@ -4452,10 +4454,10 @@
         <v>24974</v>
       </c>
       <c r="D231" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E231" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
@@ -4466,7 +4468,7 @@
         <v>24990</v>
       </c>
       <c r="D232" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.45">
@@ -4477,13 +4479,13 @@
         <v>22423</v>
       </c>
       <c r="C233" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D233" t="s">
         <v>54</v>
       </c>
       <c r="E233" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.45">
@@ -4494,13 +4496,13 @@
         <v>22423</v>
       </c>
       <c r="C234" t="s">
+        <v>275</v>
+      </c>
+      <c r="D234" t="s">
         <v>277</v>
       </c>
-      <c r="D234" t="s">
-        <v>279</v>
-      </c>
       <c r="E234" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.45">
@@ -4511,10 +4513,10 @@
         <v>22487</v>
       </c>
       <c r="C235" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D235" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.45">
@@ -4525,10 +4527,10 @@
         <v>22424</v>
       </c>
       <c r="C236" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D236" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.45">
@@ -4550,7 +4552,7 @@
         <v>22444</v>
       </c>
       <c r="C238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D238" t="s">
         <v>160</v>
@@ -4564,10 +4566,10 @@
         <v>22444</v>
       </c>
       <c r="C239" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D239" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.45">
@@ -4578,7 +4580,7 @@
         <v>22426</v>
       </c>
       <c r="D240" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
@@ -4699,7 +4701,7 @@
         <v>23628</v>
       </c>
       <c r="D251" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -4710,7 +4712,7 @@
         <v>22433</v>
       </c>
       <c r="D252" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
@@ -4743,7 +4745,7 @@
         <v>22443</v>
       </c>
       <c r="D255" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
@@ -4754,7 +4756,7 @@
         <v>20747</v>
       </c>
       <c r="D256" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
@@ -4765,7 +4767,7 @@
         <v>22485</v>
       </c>
       <c r="D257" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
@@ -4776,7 +4778,7 @@
         <v>22434</v>
       </c>
       <c r="D258" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
@@ -4787,7 +4789,7 @@
         <v>22435</v>
       </c>
       <c r="D259" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
@@ -4798,7 +4800,7 @@
         <v>22544</v>
       </c>
       <c r="D260" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
@@ -4809,7 +4811,7 @@
         <v>23735</v>
       </c>
       <c r="D261" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
@@ -4820,7 +4822,7 @@
         <v>22436</v>
       </c>
       <c r="D262" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
@@ -4831,7 +4833,7 @@
         <v>22437</v>
       </c>
       <c r="D263" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
@@ -4842,7 +4844,7 @@
         <v>22438</v>
       </c>
       <c r="D264" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
@@ -4853,7 +4855,7 @@
         <v>23601</v>
       </c>
       <c r="D265" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
@@ -4864,7 +4866,7 @@
         <v>22439</v>
       </c>
       <c r="D266" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
@@ -4875,7 +4877,7 @@
         <v>22440</v>
       </c>
       <c r="D267" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
@@ -4886,7 +4888,7 @@
         <v>22441</v>
       </c>
       <c r="D268" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
@@ -4897,7 +4899,7 @@
         <v>23626</v>
       </c>
       <c r="D269" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
@@ -4908,7 +4910,7 @@
         <v>22442</v>
       </c>
       <c r="D270" t="s">
-        <v>207</v>
+        <v>458</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
@@ -4919,10 +4921,10 @@
         <v>22446</v>
       </c>
       <c r="C271" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D271" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
@@ -4933,10 +4935,10 @@
         <v>22446</v>
       </c>
       <c r="C272" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D272" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.45">
@@ -4947,10 +4949,10 @@
         <v>22587</v>
       </c>
       <c r="C273" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D273" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.45">
@@ -4961,10 +4963,10 @@
         <v>22588</v>
       </c>
       <c r="C274" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D274" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.45">
@@ -4975,10 +4977,10 @@
         <v>22589</v>
       </c>
       <c r="C275" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D275" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.45">
@@ -4989,10 +4991,10 @@
         <v>22590</v>
       </c>
       <c r="C276" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D276" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.45">
@@ -5003,10 +5005,10 @@
         <v>22591</v>
       </c>
       <c r="C277" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D277" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.45">
@@ -5017,10 +5019,10 @@
         <v>22592</v>
       </c>
       <c r="C278" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D278" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.45">
@@ -5031,10 +5033,10 @@
         <v>22593</v>
       </c>
       <c r="C279" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D279" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.45">
@@ -5045,10 +5047,10 @@
         <v>22594</v>
       </c>
       <c r="C280" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D280" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.45">
@@ -5059,10 +5061,10 @@
         <v>22595</v>
       </c>
       <c r="C281" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D281" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.45">
@@ -5073,10 +5075,10 @@
         <v>22596</v>
       </c>
       <c r="C282" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D282" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.45">
@@ -5087,10 +5089,10 @@
         <v>26572</v>
       </c>
       <c r="C283" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D283" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.45">
@@ -5126,7 +5128,7 @@
         <v>59</v>
       </c>
       <c r="E286" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.45">
@@ -5225,7 +5227,7 @@
         <v>22479</v>
       </c>
       <c r="D295" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
@@ -5236,7 +5238,7 @@
         <v>22480</v>
       </c>
       <c r="D296" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
@@ -5247,7 +5249,7 @@
         <v>22467</v>
       </c>
       <c r="D297" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
@@ -5291,7 +5293,7 @@
         <v>22464</v>
       </c>
       <c r="D301" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
@@ -5335,7 +5337,7 @@
         <v>26461</v>
       </c>
       <c r="D305" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.45">
@@ -5346,7 +5348,7 @@
         <v>26462</v>
       </c>
       <c r="D306" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.45">
@@ -5357,10 +5359,10 @@
         <v>24838</v>
       </c>
       <c r="D307" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E307" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.45">
@@ -5371,7 +5373,7 @@
         <v>24842</v>
       </c>
       <c r="D308" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.45">
@@ -5382,7 +5384,7 @@
         <v>24846</v>
       </c>
       <c r="D309" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.45">
@@ -5393,7 +5395,7 @@
         <v>24849</v>
       </c>
       <c r="D310" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.45">
@@ -5404,7 +5406,7 @@
         <v>24852</v>
       </c>
       <c r="D311" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.45">
@@ -5415,7 +5417,7 @@
         <v>24856</v>
       </c>
       <c r="D312" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.45">
@@ -5426,7 +5428,7 @@
         <v>24859</v>
       </c>
       <c r="D313" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.45">
@@ -5437,10 +5439,10 @@
         <v>7315</v>
       </c>
       <c r="D314" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E314" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.45">
@@ -5451,7 +5453,7 @@
         <v>7316</v>
       </c>
       <c r="D315" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.45">
@@ -5462,7 +5464,7 @@
         <v>6818</v>
       </c>
       <c r="D316" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.45">
@@ -5473,10 +5475,10 @@
         <v>23566</v>
       </c>
       <c r="D317" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E317" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.45">
@@ -5498,7 +5500,7 @@
         <v>24655</v>
       </c>
       <c r="D319" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.45">
@@ -5509,10 +5511,10 @@
         <v>23233</v>
       </c>
       <c r="D320" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E320" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
@@ -5567,7 +5569,7 @@
         <v>23237</v>
       </c>
       <c r="D325" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
@@ -5578,7 +5580,7 @@
         <v>23257</v>
       </c>
       <c r="D326" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
@@ -5589,7 +5591,7 @@
         <v>23251</v>
       </c>
       <c r="D327" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
@@ -5655,7 +5657,7 @@
         <v>23244</v>
       </c>
       <c r="D333" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
@@ -5666,7 +5668,7 @@
         <v>25019</v>
       </c>
       <c r="D334" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
@@ -5677,7 +5679,7 @@
         <v>24695</v>
       </c>
       <c r="C335" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D335" t="s">
         <v>55</v>
@@ -5691,10 +5693,10 @@
         <v>24694</v>
       </c>
       <c r="C336" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D336" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
@@ -5705,10 +5707,10 @@
         <v>24696</v>
       </c>
       <c r="C337" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D337" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
@@ -5719,7 +5721,7 @@
         <v>24697</v>
       </c>
       <c r="C338" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D338" t="s">
         <v>163</v>
@@ -5733,7 +5735,7 @@
         <v>24698</v>
       </c>
       <c r="C339" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D339" t="s">
         <v>164</v>
@@ -5747,10 +5749,10 @@
         <v>24699</v>
       </c>
       <c r="C340" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D340" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
@@ -5761,10 +5763,10 @@
         <v>24700</v>
       </c>
       <c r="C341" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D341" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
@@ -5775,7 +5777,7 @@
         <v>24701</v>
       </c>
       <c r="C342" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D342" t="s">
         <v>54</v>
@@ -5789,7 +5791,7 @@
         <v>24702</v>
       </c>
       <c r="C343" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D343" t="s">
         <v>159</v>
@@ -5803,10 +5805,10 @@
         <v>24703</v>
       </c>
       <c r="C344" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D344" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
@@ -5817,7 +5819,7 @@
         <v>24704</v>
       </c>
       <c r="C345" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D345" t="s">
         <v>92</v>
@@ -5831,10 +5833,10 @@
         <v>24705</v>
       </c>
       <c r="C346" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D346" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
@@ -5845,7 +5847,7 @@
         <v>24707</v>
       </c>
       <c r="C347" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D347" t="s">
         <v>162</v>
@@ -5859,7 +5861,7 @@
         <v>24708</v>
       </c>
       <c r="C348" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D348" t="s">
         <v>95</v>
@@ -5873,7 +5875,7 @@
         <v>24709</v>
       </c>
       <c r="C349" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D349" t="s">
         <v>96</v>
@@ -5887,7 +5889,7 @@
         <v>24711</v>
       </c>
       <c r="C350" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D350" t="s">
         <v>97</v>
@@ -5901,7 +5903,7 @@
         <v>24710</v>
       </c>
       <c r="C351" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D351" t="s">
         <v>98</v>
@@ -5915,10 +5917,10 @@
         <v>24706</v>
       </c>
       <c r="C352" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D352" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
@@ -5929,10 +5931,10 @@
         <v>22175</v>
       </c>
       <c r="C353" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D353" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
@@ -5943,7 +5945,7 @@
         <v>22176</v>
       </c>
       <c r="C354" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D354" t="s">
         <v>8</v>
@@ -5957,10 +5959,10 @@
         <v>22177</v>
       </c>
       <c r="C355" t="s">
+        <v>303</v>
+      </c>
+      <c r="D355" t="s">
         <v>305</v>
-      </c>
-      <c r="D355" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
@@ -5971,10 +5973,10 @@
         <v>23591</v>
       </c>
       <c r="C356" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D356" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
@@ -5985,10 +5987,10 @@
         <v>22178</v>
       </c>
       <c r="C357" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D357" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
@@ -5999,10 +6001,10 @@
         <v>22180</v>
       </c>
       <c r="C358" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D358" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
@@ -6013,10 +6015,10 @@
         <v>22179</v>
       </c>
       <c r="C359" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D359" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
@@ -6027,10 +6029,10 @@
         <v>24903</v>
       </c>
       <c r="C360" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D360" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
@@ -6041,7 +6043,7 @@
         <v>22183</v>
       </c>
       <c r="C361" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D361" t="s">
         <v>63</v>
@@ -6055,10 +6057,10 @@
         <v>22185</v>
       </c>
       <c r="C362" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D362" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
@@ -6069,7 +6071,7 @@
         <v>22186</v>
       </c>
       <c r="C363" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D363" t="s">
         <v>64</v>
@@ -6083,10 +6085,10 @@
         <v>22188</v>
       </c>
       <c r="C364" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D364" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
@@ -6097,10 +6099,10 @@
         <v>22189</v>
       </c>
       <c r="C365" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D365" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
@@ -6111,10 +6113,10 @@
         <v>22191</v>
       </c>
       <c r="C366" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D366" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.45">
@@ -6125,10 +6127,10 @@
         <v>22192</v>
       </c>
       <c r="C367" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D367" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.45">
@@ -6139,10 +6141,10 @@
         <v>22194</v>
       </c>
       <c r="C368" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D368" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.45">
@@ -6153,10 +6155,10 @@
         <v>22195</v>
       </c>
       <c r="C369" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D369" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.45">
@@ -6167,10 +6169,10 @@
         <v>22196</v>
       </c>
       <c r="C370" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D370" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
@@ -6181,10 +6183,10 @@
         <v>22198</v>
       </c>
       <c r="C371" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D371" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.45">
@@ -6195,10 +6197,10 @@
         <v>22301</v>
       </c>
       <c r="C372" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D372" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.45">
@@ -6209,10 +6211,10 @@
         <v>21164</v>
       </c>
       <c r="C373" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D373" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.45">
@@ -6223,10 +6225,10 @@
         <v>21167</v>
       </c>
       <c r="C374" t="s">
+        <v>320</v>
+      </c>
+      <c r="D374" t="s">
         <v>322</v>
-      </c>
-      <c r="D374" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.45">
@@ -6237,10 +6239,10 @@
         <v>22303</v>
       </c>
       <c r="C375" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D375" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.45">
@@ -6251,10 +6253,10 @@
         <v>22302</v>
       </c>
       <c r="C376" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D376" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.45">
@@ -6265,10 +6267,10 @@
         <v>26470</v>
       </c>
       <c r="C377" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D377" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
@@ -6279,10 +6281,10 @@
         <v>24897</v>
       </c>
       <c r="C378" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D378" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.45">
@@ -6293,7 +6295,7 @@
         <v>24894</v>
       </c>
       <c r="C379" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D379" t="s">
         <v>63</v>
@@ -6307,7 +6309,7 @@
         <v>24895</v>
       </c>
       <c r="C380" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D380" t="s">
         <v>64</v>
@@ -6321,10 +6323,10 @@
         <v>25052</v>
       </c>
       <c r="C381" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D381" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.45">
@@ -6335,10 +6337,10 @@
         <v>23978</v>
       </c>
       <c r="C382" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D382" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.45">
@@ -6349,10 +6351,10 @@
         <v>23983</v>
       </c>
       <c r="C383" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D383" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.45">
@@ -6363,10 +6365,10 @@
         <v>23868</v>
       </c>
       <c r="C384" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D384" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.45">
@@ -6377,10 +6379,10 @@
         <v>23869</v>
       </c>
       <c r="C385" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D385" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.45">
@@ -6391,10 +6393,10 @@
         <v>23870</v>
       </c>
       <c r="C386" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D386" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.45">
@@ -6405,10 +6407,10 @@
         <v>23873</v>
       </c>
       <c r="C387" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D387" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.45">
@@ -6419,10 +6421,10 @@
         <v>23874</v>
       </c>
       <c r="C388" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D388" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.45">
@@ -6433,10 +6435,10 @@
         <v>23875</v>
       </c>
       <c r="C389" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D389" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.45">
@@ -6447,10 +6449,10 @@
         <v>23876</v>
       </c>
       <c r="C390" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D390" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.45">
@@ -6461,10 +6463,10 @@
         <v>23877</v>
       </c>
       <c r="C391" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D391" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.45">
@@ -6475,10 +6477,10 @@
         <v>23878</v>
       </c>
       <c r="C392" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D392" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.45">
@@ -6489,10 +6491,10 @@
         <v>23879</v>
       </c>
       <c r="C393" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D393" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.45">
@@ -6503,10 +6505,10 @@
         <v>23880</v>
       </c>
       <c r="C394" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D394" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.45">
@@ -6517,10 +6519,10 @@
         <v>23881</v>
       </c>
       <c r="C395" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D395" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.45">
@@ -6531,10 +6533,10 @@
         <v>23882</v>
       </c>
       <c r="C396" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D396" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.45">
@@ -6545,10 +6547,10 @@
         <v>23883</v>
       </c>
       <c r="C397" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D397" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.45">
@@ -6559,10 +6561,10 @@
         <v>23884</v>
       </c>
       <c r="C398" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D398" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.45">
@@ -6573,10 +6575,10 @@
         <v>23885</v>
       </c>
       <c r="C399" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D399" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.45">
@@ -6587,10 +6589,10 @@
         <v>23886</v>
       </c>
       <c r="C400" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D400" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.45">
@@ -6601,10 +6603,10 @@
         <v>26659</v>
       </c>
       <c r="C401" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D401" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.45">
@@ -6615,10 +6617,10 @@
         <v>23887</v>
       </c>
       <c r="C402" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D402" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.45">
@@ -6629,10 +6631,10 @@
         <v>24123</v>
       </c>
       <c r="C403" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D403" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.45">
@@ -6643,10 +6645,10 @@
         <v>26202</v>
       </c>
       <c r="C404" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D404" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.45">
@@ -6657,10 +6659,10 @@
         <v>26203</v>
       </c>
       <c r="C405" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D405" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.45">
@@ -6671,10 +6673,10 @@
         <v>23888</v>
       </c>
       <c r="C406" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D406" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.45">
@@ -6685,10 +6687,10 @@
         <v>23871</v>
       </c>
       <c r="C407" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D407" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.45">
@@ -6699,10 +6701,10 @@
         <v>23872</v>
       </c>
       <c r="C408" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D408" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.45">
@@ -6713,10 +6715,10 @@
         <v>24088</v>
       </c>
       <c r="C409" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D409" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.45">
@@ -6727,10 +6729,10 @@
         <v>23889</v>
       </c>
       <c r="C410" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D410" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.45">
@@ -6741,10 +6743,10 @@
         <v>23890</v>
       </c>
       <c r="C411" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D411" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.45">
@@ -6755,10 +6757,10 @@
         <v>23891</v>
       </c>
       <c r="C412" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D412" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.45">
@@ -6769,10 +6771,10 @@
         <v>24873</v>
       </c>
       <c r="C413" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D413" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.45">
@@ -6783,10 +6785,10 @@
         <v>24874</v>
       </c>
       <c r="C414" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D414" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
@@ -6797,10 +6799,10 @@
         <v>24875</v>
       </c>
       <c r="C415" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D415" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
@@ -6811,10 +6813,10 @@
         <v>24876</v>
       </c>
       <c r="C416" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D416" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.45">
@@ -6825,10 +6827,10 @@
         <v>24877</v>
       </c>
       <c r="C417" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D417" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.45">
@@ -6839,10 +6841,10 @@
         <v>24878</v>
       </c>
       <c r="C418" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D418" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.45">
@@ -6853,10 +6855,10 @@
         <v>24879</v>
       </c>
       <c r="C419" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D419" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.45">
@@ -6867,10 +6869,10 @@
         <v>24089</v>
       </c>
       <c r="C420" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D420" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.45">
@@ -6881,10 +6883,10 @@
         <v>23892</v>
       </c>
       <c r="C421" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D421" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.45">
@@ -6895,10 +6897,10 @@
         <v>24095</v>
       </c>
       <c r="C422" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D422" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.45">
@@ -6909,10 +6911,10 @@
         <v>24174</v>
       </c>
       <c r="C423" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D423" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.45">
@@ -6923,10 +6925,10 @@
         <v>23893</v>
       </c>
       <c r="C424" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D424" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.45">
@@ -6937,10 +6939,10 @@
         <v>23894</v>
       </c>
       <c r="C425" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D425" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.45">
@@ -6951,10 +6953,10 @@
         <v>23895</v>
       </c>
       <c r="C426" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D426" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.45">
@@ -6965,10 +6967,10 @@
         <v>23984</v>
       </c>
       <c r="C427" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D427" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.45">
@@ -6979,10 +6981,10 @@
         <v>23985</v>
       </c>
       <c r="C428" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D428" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.45">
@@ -6993,10 +6995,10 @@
         <v>24090</v>
       </c>
       <c r="C429" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D429" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.45">
@@ -7007,10 +7009,10 @@
         <v>25007</v>
       </c>
       <c r="C430" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D430" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.45">
@@ -7021,10 +7023,10 @@
         <v>23988</v>
       </c>
       <c r="C431" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D431" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.45">
@@ -7035,10 +7037,10 @@
         <v>24038</v>
       </c>
       <c r="C432" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D432" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.45">
@@ -7049,10 +7051,10 @@
         <v>23987</v>
       </c>
       <c r="C433" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D433" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
@@ -7063,10 +7065,10 @@
         <v>25003</v>
       </c>
       <c r="C434" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D434" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.45">
@@ -7077,10 +7079,10 @@
         <v>24085</v>
       </c>
       <c r="C435" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D435" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.45">
@@ -7091,10 +7093,10 @@
         <v>25004</v>
       </c>
       <c r="C436" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D436" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.45">
@@ -7105,10 +7107,10 @@
         <v>23989</v>
       </c>
       <c r="C437" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D437" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.45">
@@ -7119,10 +7121,10 @@
         <v>24032</v>
       </c>
       <c r="C438" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D438" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.45">
@@ -7133,10 +7135,10 @@
         <v>23990</v>
       </c>
       <c r="C439" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D439" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
@@ -7147,10 +7149,10 @@
         <v>24034</v>
       </c>
       <c r="C440" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D440" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
@@ -7161,10 +7163,10 @@
         <v>23991</v>
       </c>
       <c r="C441" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D441" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
@@ -7175,10 +7177,10 @@
         <v>24036</v>
       </c>
       <c r="C442" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D442" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
@@ -7189,10 +7191,10 @@
         <v>24086</v>
       </c>
       <c r="C443" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D443" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.45">
@@ -7203,10 +7205,10 @@
         <v>25005</v>
       </c>
       <c r="C444" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D444" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.45">
@@ -7217,10 +7219,10 @@
         <v>24087</v>
       </c>
       <c r="C445" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D445" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.45">
@@ -7231,10 +7233,10 @@
         <v>25006</v>
       </c>
       <c r="C446" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D446" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.45">
@@ -7245,10 +7247,10 @@
         <v>23986</v>
       </c>
       <c r="C447" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D447" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.45">
@@ -7259,10 +7261,10 @@
         <v>24092</v>
       </c>
       <c r="C448" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D448" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.45">
@@ -7273,10 +7275,10 @@
         <v>24093</v>
       </c>
       <c r="C449" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D449" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.45">
@@ -7287,10 +7289,10 @@
         <v>24094</v>
       </c>
       <c r="C450" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D450" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.45">
@@ -7301,10 +7303,10 @@
         <v>23896</v>
       </c>
       <c r="C451" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D451" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.45">
@@ -7315,10 +7317,10 @@
         <v>22248</v>
       </c>
       <c r="C452" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D452" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.45">
@@ -7329,10 +7331,10 @@
         <v>22251</v>
       </c>
       <c r="C453" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D453" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.45">
@@ -7343,10 +7345,10 @@
         <v>20743</v>
       </c>
       <c r="C454" t="s">
+        <v>398</v>
+      </c>
+      <c r="D454" t="s">
         <v>400</v>
-      </c>
-      <c r="D454" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.45">
@@ -7357,10 +7359,10 @@
         <v>20723</v>
       </c>
       <c r="C455" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D455" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.45">
@@ -7371,10 +7373,10 @@
         <v>20723</v>
       </c>
       <c r="C456" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D456" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.45">
@@ -7385,10 +7387,10 @@
         <v>21147</v>
       </c>
       <c r="C457" t="s">
+        <v>402</v>
+      </c>
+      <c r="D457" t="s">
         <v>404</v>
-      </c>
-      <c r="D457" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.45">
@@ -7399,10 +7401,10 @@
         <v>21146</v>
       </c>
       <c r="C458" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D458" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.45">
@@ -7413,10 +7415,10 @@
         <v>21148</v>
       </c>
       <c r="C459" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D459" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.45">
@@ -7427,10 +7429,10 @@
         <v>21149</v>
       </c>
       <c r="C460" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D460" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.45">
@@ -7441,10 +7443,10 @@
         <v>21150</v>
       </c>
       <c r="C461" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D461" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.45">
@@ -7455,10 +7457,10 @@
         <v>21151</v>
       </c>
       <c r="C462" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D462" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.45">
@@ -7469,10 +7471,10 @@
         <v>23637</v>
       </c>
       <c r="C463" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D463" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.45">
@@ -7483,10 +7485,10 @@
         <v>23638</v>
       </c>
       <c r="C464" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D464" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.45">
@@ -7497,10 +7499,10 @@
         <v>20723</v>
       </c>
       <c r="C465" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D465" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.45">
@@ -7511,10 +7513,10 @@
         <v>22084</v>
       </c>
       <c r="C466" t="s">
+        <v>413</v>
+      </c>
+      <c r="D466" t="s">
         <v>415</v>
-      </c>
-      <c r="D466" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.45">
@@ -7525,10 +7527,10 @@
         <v>22085</v>
       </c>
       <c r="C467" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D467" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.45">
@@ -7539,10 +7541,10 @@
         <v>24908</v>
       </c>
       <c r="C468" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D468" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.45">
@@ -7553,10 +7555,10 @@
         <v>21346</v>
       </c>
       <c r="C469" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D469" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.45">
@@ -7567,10 +7569,10 @@
         <v>26662</v>
       </c>
       <c r="C470" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D470" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.45">
@@ -7581,10 +7583,10 @@
         <v>21530</v>
       </c>
       <c r="C471" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D471" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.45">
@@ -7595,10 +7597,10 @@
         <v>21521</v>
       </c>
       <c r="C472" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D472" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.45">
@@ -7609,10 +7611,10 @@
         <v>22206</v>
       </c>
       <c r="C473" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D473" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.45">
@@ -7623,7 +7625,7 @@
         <v>22207</v>
       </c>
       <c r="C474" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D474" t="s">
         <v>55</v>
@@ -7637,10 +7639,10 @@
         <v>22208</v>
       </c>
       <c r="C475" t="s">
+        <v>422</v>
+      </c>
+      <c r="D475" t="s">
         <v>424</v>
-      </c>
-      <c r="D475" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.45">
@@ -7651,10 +7653,10 @@
         <v>22209</v>
       </c>
       <c r="C476" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D476" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.45">
@@ -7665,7 +7667,7 @@
         <v>22212</v>
       </c>
       <c r="C477" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D477" t="s">
         <v>54</v>
@@ -7679,10 +7681,10 @@
         <v>22213</v>
       </c>
       <c r="C478" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D478" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.45">
@@ -7693,10 +7695,10 @@
         <v>22215</v>
       </c>
       <c r="C479" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D479" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.45">
@@ -7707,10 +7709,10 @@
         <v>22216</v>
       </c>
       <c r="C480" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D480" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.45">
@@ -7721,7 +7723,7 @@
         <v>22217</v>
       </c>
       <c r="C481" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D481" t="s">
         <v>163</v>
@@ -7735,10 +7737,10 @@
         <v>22218</v>
       </c>
       <c r="C482" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D482" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.45">
@@ -7749,10 +7751,10 @@
         <v>22219</v>
       </c>
       <c r="C483" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D483" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.45">
@@ -7763,10 +7765,10 @@
         <v>22220</v>
       </c>
       <c r="C484" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D484" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.45">
@@ -7777,10 +7779,10 @@
         <v>22214</v>
       </c>
       <c r="C485" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D485" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.45">
@@ -7791,10 +7793,10 @@
         <v>22225</v>
       </c>
       <c r="C486" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D486" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.45">
@@ -7805,10 +7807,10 @@
         <v>22211</v>
       </c>
       <c r="C487" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D487" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.45">
@@ -7819,10 +7821,10 @@
         <v>22221</v>
       </c>
       <c r="C488" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D488" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.45">
@@ -7833,10 +7835,10 @@
         <v>22222</v>
       </c>
       <c r="C489" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D489" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.45">
@@ -7847,10 +7849,10 @@
         <v>22223</v>
       </c>
       <c r="C490" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D490" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.45">
@@ -7861,10 +7863,10 @@
         <v>22224</v>
       </c>
       <c r="C491" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D491" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.45">
@@ -7875,7 +7877,7 @@
         <v>22756</v>
       </c>
       <c r="C492" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D492" t="s">
         <v>159</v>
@@ -7889,7 +7891,7 @@
         <v>22757</v>
       </c>
       <c r="C493" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D493" t="s">
         <v>55</v>
@@ -7903,10 +7905,10 @@
         <v>22759</v>
       </c>
       <c r="C494" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D494" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.45">
@@ -7917,10 +7919,10 @@
         <v>22761</v>
       </c>
       <c r="C495" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D495" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.45">
@@ -7931,10 +7933,10 @@
         <v>22760</v>
       </c>
       <c r="C496" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D496" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.45">
@@ -7945,7 +7947,7 @@
         <v>22767</v>
       </c>
       <c r="C497" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D497" t="s">
         <v>63</v>
@@ -7959,7 +7961,7 @@
         <v>22766</v>
       </c>
       <c r="C498" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D498" t="s">
         <v>64</v>
@@ -7973,10 +7975,10 @@
         <v>22763</v>
       </c>
       <c r="C499" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D499" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.45">
@@ -7987,10 +7989,10 @@
         <v>22764</v>
       </c>
       <c r="C500" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D500" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.45">
@@ -8001,10 +8003,10 @@
         <v>22765</v>
       </c>
       <c r="C501" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D501" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.45">
@@ -8015,10 +8017,10 @@
         <v>21557</v>
       </c>
       <c r="C502" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D502" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.45">
@@ -8029,10 +8031,10 @@
         <v>21521</v>
       </c>
       <c r="C503" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D503" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.45">
@@ -8043,7 +8045,7 @@
         <v>21547</v>
       </c>
       <c r="C504" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.45">
@@ -8054,10 +8056,10 @@
         <v>23660</v>
       </c>
       <c r="C505" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D505" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.45">
@@ -8068,10 +8070,10 @@
         <v>23661</v>
       </c>
       <c r="C506" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D506" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.45">
@@ -8082,7 +8084,7 @@
         <v>23649</v>
       </c>
       <c r="C507" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D507" t="s">
         <v>95</v>
@@ -8096,7 +8098,7 @@
         <v>23650</v>
       </c>
       <c r="C508" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D508" t="s">
         <v>96</v>
@@ -8110,10 +8112,10 @@
         <v>26707</v>
       </c>
       <c r="C509" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D509" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.45">
@@ -8124,10 +8126,332 @@
         <v>26707</v>
       </c>
       <c r="C510" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D510" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A511" t="s">
+        <v>6</v>
+      </c>
+      <c r="B511">
+        <v>21863</v>
+      </c>
+      <c r="C511" t="s">
+        <v>449</v>
+      </c>
+      <c r="D511" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A512" t="s">
+        <v>6</v>
+      </c>
+      <c r="B512">
+        <v>21864</v>
+      </c>
+      <c r="C512" t="s">
+        <v>449</v>
+      </c>
+      <c r="D512" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A513" t="s">
+        <v>6</v>
+      </c>
+      <c r="B513">
+        <v>23728</v>
+      </c>
+      <c r="C513" t="s">
+        <v>449</v>
+      </c>
+      <c r="D513" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A514" t="s">
+        <v>6</v>
+      </c>
+      <c r="B514">
+        <v>21865</v>
+      </c>
+      <c r="C514" t="s">
+        <v>449</v>
+      </c>
+      <c r="D514" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A515" t="s">
+        <v>6</v>
+      </c>
+      <c r="B515">
+        <v>21866</v>
+      </c>
+      <c r="C515" t="s">
+        <v>449</v>
+      </c>
+      <c r="D515" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A516" t="s">
+        <v>6</v>
+      </c>
+      <c r="B516">
+        <v>21867</v>
+      </c>
+      <c r="C516" t="s">
+        <v>449</v>
+      </c>
+      <c r="D516" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A517" t="s">
+        <v>6</v>
+      </c>
+      <c r="B517">
+        <v>23974</v>
+      </c>
+      <c r="C517" t="s">
+        <v>449</v>
+      </c>
+      <c r="D517" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A518" t="s">
+        <v>6</v>
+      </c>
+      <c r="B518">
+        <v>21868</v>
+      </c>
+      <c r="C518" t="s">
+        <v>449</v>
+      </c>
+      <c r="D518" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A519" t="s">
+        <v>6</v>
+      </c>
+      <c r="B519">
+        <v>22053</v>
+      </c>
+      <c r="C519" t="s">
+        <v>449</v>
+      </c>
+      <c r="D519" t="s">
         <v>450</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A520" t="s">
+        <v>6</v>
+      </c>
+      <c r="B520">
+        <v>21869</v>
+      </c>
+      <c r="C520" t="s">
+        <v>449</v>
+      </c>
+      <c r="D520" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A521" t="s">
+        <v>6</v>
+      </c>
+      <c r="B521">
+        <v>21870</v>
+      </c>
+      <c r="C521" t="s">
+        <v>449</v>
+      </c>
+      <c r="D521" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A522" t="s">
+        <v>6</v>
+      </c>
+      <c r="B522">
+        <v>21871</v>
+      </c>
+      <c r="C522" t="s">
+        <v>449</v>
+      </c>
+      <c r="D522" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A523" t="s">
+        <v>6</v>
+      </c>
+      <c r="B523">
+        <v>22048</v>
+      </c>
+      <c r="C523" t="s">
+        <v>449</v>
+      </c>
+      <c r="D523" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A524" t="s">
+        <v>6</v>
+      </c>
+      <c r="B524">
+        <v>22049</v>
+      </c>
+      <c r="C524" t="s">
+        <v>449</v>
+      </c>
+      <c r="D524" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A525" t="s">
+        <v>6</v>
+      </c>
+      <c r="B525">
+        <v>21874</v>
+      </c>
+      <c r="C525" t="s">
+        <v>449</v>
+      </c>
+      <c r="D525" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A526" t="s">
+        <v>6</v>
+      </c>
+      <c r="B526">
+        <v>21981</v>
+      </c>
+      <c r="C526" t="s">
+        <v>449</v>
+      </c>
+      <c r="D526" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A527" t="s">
+        <v>6</v>
+      </c>
+      <c r="B527">
+        <v>21984</v>
+      </c>
+      <c r="C527" t="s">
+        <v>449</v>
+      </c>
+      <c r="D527" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A528" t="s">
+        <v>6</v>
+      </c>
+      <c r="B528">
+        <v>21873</v>
+      </c>
+      <c r="C528" t="s">
+        <v>449</v>
+      </c>
+      <c r="D528" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A529" t="s">
+        <v>6</v>
+      </c>
+      <c r="B529">
+        <v>21872</v>
+      </c>
+      <c r="C529" t="s">
+        <v>449</v>
+      </c>
+      <c r="D529" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A530" t="s">
+        <v>6</v>
+      </c>
+      <c r="B530">
+        <v>24649</v>
+      </c>
+      <c r="C530" t="s">
+        <v>449</v>
+      </c>
+      <c r="D530" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A531" t="s">
+        <v>6</v>
+      </c>
+      <c r="B531">
+        <v>21941</v>
+      </c>
+      <c r="C531" t="s">
+        <v>449</v>
+      </c>
+      <c r="D531" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A532" t="s">
+        <v>6</v>
+      </c>
+      <c r="B532">
+        <v>21942</v>
+      </c>
+      <c r="C532" t="s">
+        <v>449</v>
+      </c>
+      <c r="D532" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A533" t="s">
+        <v>6</v>
+      </c>
+      <c r="B533">
+        <v>26701</v>
+      </c>
+      <c r="C533" t="s">
+        <v>449</v>
+      </c>
+      <c r="D533" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Controls.xlsx
+++ b/Files/Controls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl-Otto\Documents\src\NVDA\VismaAdministration\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E157496-2BE6-48EB-BCF8-DA1D31F7C038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFCAFCB-5A98-4993-9F11-9A1CF3EE24B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="16876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="465">
   <si>
     <t>WindowClassName</t>
   </si>
@@ -1410,6 +1410,24 @@
   </si>
   <si>
     <t>Avvikande Leveransadress, Telefon 3</t>
+  </si>
+  <si>
+    <t>Avtalstid från och med</t>
+  </si>
+  <si>
+    <t>Avtalstid till och med</t>
+  </si>
+  <si>
+    <t>Första faktureringsmånad</t>
+  </si>
+  <si>
+    <t>Fakturadag</t>
+  </si>
+  <si>
+    <t>Fakturaintervall, månader</t>
+  </si>
+  <si>
+    <t>Nästa period, slut</t>
   </si>
 </sst>
 </file>
@@ -1727,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E533"/>
+  <dimension ref="A1:E543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="A534" sqref="A534"/>
+    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8454,6 +8472,146 @@
         <v>457</v>
       </c>
     </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A534" t="s">
+        <v>6</v>
+      </c>
+      <c r="B534">
+        <v>22554</v>
+      </c>
+      <c r="C534" t="s">
+        <v>234</v>
+      </c>
+      <c r="D534" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A535" t="s">
+        <v>6</v>
+      </c>
+      <c r="B535">
+        <v>22555</v>
+      </c>
+      <c r="C535" t="s">
+        <v>234</v>
+      </c>
+      <c r="D535" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A536" t="s">
+        <v>6</v>
+      </c>
+      <c r="B536">
+        <v>22316</v>
+      </c>
+      <c r="C536" t="s">
+        <v>234</v>
+      </c>
+      <c r="D536" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A537" t="s">
+        <v>6</v>
+      </c>
+      <c r="B537">
+        <v>22556</v>
+      </c>
+      <c r="C537" t="s">
+        <v>234</v>
+      </c>
+      <c r="D537" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A538" t="s">
+        <v>6</v>
+      </c>
+      <c r="B538">
+        <v>22554</v>
+      </c>
+      <c r="C538" t="s">
+        <v>234</v>
+      </c>
+      <c r="D538" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A539" t="s">
+        <v>6</v>
+      </c>
+      <c r="B539">
+        <v>22555</v>
+      </c>
+      <c r="C539" t="s">
+        <v>234</v>
+      </c>
+      <c r="D539" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A540" t="s">
+        <v>6</v>
+      </c>
+      <c r="B540">
+        <v>22556</v>
+      </c>
+      <c r="C540" t="s">
+        <v>234</v>
+      </c>
+      <c r="D540" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A541" t="s">
+        <v>6</v>
+      </c>
+      <c r="B541">
+        <v>22558</v>
+      </c>
+      <c r="C541" t="s">
+        <v>234</v>
+      </c>
+      <c r="D541" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A542" t="s">
+        <v>6</v>
+      </c>
+      <c r="B542">
+        <v>22557</v>
+      </c>
+      <c r="C542" t="s">
+        <v>234</v>
+      </c>
+      <c r="D542" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A543" t="s">
+        <v>6</v>
+      </c>
+      <c r="B543">
+        <v>22564</v>
+      </c>
+      <c r="C543" t="s">
+        <v>234</v>
+      </c>
+      <c r="D543" t="s">
+        <v>464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Files/Controls.xlsx
+++ b/Files/Controls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl-Otto\Documents\src\NVDA\VismaAdministration\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFCAFCB-5A98-4993-9F11-9A1CF3EE24B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2861600-8B09-409D-9027-E4BAB7602282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="16876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="23040" windowHeight="12232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="471">
   <si>
     <t>WindowClassName</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Artikelkort, flik 3</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>Normal leveranstid</t>
   </si>
   <si>
@@ -1428,6 +1425,27 @@
   </si>
   <si>
     <t>Nästa period, slut</t>
+  </si>
+  <si>
+    <t>Skapa fakturor</t>
+  </si>
+  <si>
+    <t>Fakturera till och med</t>
+  </si>
+  <si>
+    <t>Inläsning underlag</t>
+  </si>
+  <si>
+    <t>Underlag</t>
+  </si>
+  <si>
+    <t>Konteringsförslag</t>
+  </si>
+  <si>
+    <t>Telefon 4</t>
+  </si>
+  <si>
+    <t>Strukturartiklar</t>
   </si>
 </sst>
 </file>
@@ -1745,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E543"/>
+  <dimension ref="A1:E547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543"/>
+    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="A547" sqref="A547:XFD547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1762,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1782,7 +1800,7 @@
         <v>7407</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -1796,10 +1814,10 @@
         <v>7407</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1810,10 +1828,10 @@
         <v>21346</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1824,10 +1842,10 @@
         <v>21346</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1838,10 +1856,10 @@
         <v>21346</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1852,10 +1870,10 @@
         <v>21346</v>
       </c>
       <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" t="s">
         <v>234</v>
-      </c>
-      <c r="D7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1866,10 +1884,10 @@
         <v>21346</v>
       </c>
       <c r="C8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s">
         <v>236</v>
-      </c>
-      <c r="D8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1880,10 +1898,10 @@
         <v>21211</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1894,10 +1912,10 @@
         <v>21346</v>
       </c>
       <c r="C10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" t="s">
         <v>238</v>
-      </c>
-      <c r="D10" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1908,10 +1926,10 @@
         <v>21346</v>
       </c>
       <c r="C11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" t="s">
         <v>242</v>
-      </c>
-      <c r="D11" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1922,10 +1940,10 @@
         <v>21516</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1936,10 +1954,10 @@
         <v>21516</v>
       </c>
       <c r="C13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
         <v>240</v>
-      </c>
-      <c r="D13" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1950,10 +1968,10 @@
         <v>21516</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1964,10 +1982,10 @@
         <v>21516</v>
       </c>
       <c r="C15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" t="s">
         <v>249</v>
-      </c>
-      <c r="D15" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1978,10 +1996,10 @@
         <v>21516</v>
       </c>
       <c r="C16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" t="s">
         <v>255</v>
-      </c>
-      <c r="D16" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1992,10 +2010,10 @@
         <v>21516</v>
       </c>
       <c r="C17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" t="s">
         <v>257</v>
-      </c>
-      <c r="D17" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -2006,10 +2024,10 @@
         <v>21516</v>
       </c>
       <c r="C18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" t="s">
         <v>261</v>
-      </c>
-      <c r="D18" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -2020,10 +2038,10 @@
         <v>21577</v>
       </c>
       <c r="C19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -2034,10 +2052,10 @@
         <v>21629</v>
       </c>
       <c r="C20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" t="s">
         <v>259</v>
-      </c>
-      <c r="D20" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -2048,10 +2066,10 @@
         <v>24693</v>
       </c>
       <c r="C21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" t="s">
         <v>245</v>
-      </c>
-      <c r="D21" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -2062,10 +2080,10 @@
         <v>21666</v>
       </c>
       <c r="C22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" t="s">
         <v>251</v>
-      </c>
-      <c r="D22" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -2076,10 +2094,10 @@
         <v>21769</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -2090,10 +2108,10 @@
         <v>21679</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -2104,10 +2122,10 @@
         <v>21666</v>
       </c>
       <c r="C25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" t="s">
         <v>253</v>
-      </c>
-      <c r="D25" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -2118,10 +2136,10 @@
         <v>21666</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -2154,7 +2172,7 @@
         <v>7221</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -2165,7 +2183,7 @@
         <v>23569</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -2176,10 +2194,10 @@
         <v>21346</v>
       </c>
       <c r="C31" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" t="s">
         <v>275</v>
-      </c>
-      <c r="D31" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -2190,7 +2208,7 @@
         <v>59648</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -2413,7 +2431,7 @@
         <v>20593</v>
       </c>
       <c r="D52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
@@ -2489,11 +2507,11 @@
       <c r="A59" t="s">
         <v>6</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <v>22627</v>
+      </c>
+      <c r="D59" t="s">
         <v>40</v>
-      </c>
-      <c r="D59" t="s">
-        <v>41</v>
       </c>
       <c r="E59" t="s">
         <v>39</v>
@@ -2507,7 +2525,7 @@
         <v>22631</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
@@ -2518,7 +2536,7 @@
         <v>22653</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
@@ -2529,7 +2547,7 @@
         <v>22654</v>
       </c>
       <c r="D62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
@@ -2540,7 +2558,7 @@
         <v>22655</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
@@ -2551,7 +2569,7 @@
         <v>22623</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
@@ -2562,7 +2580,7 @@
         <v>22625</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
@@ -2573,7 +2591,7 @@
         <v>22624</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
@@ -2584,10 +2602,10 @@
         <v>22673</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
@@ -2598,13 +2616,13 @@
         <v>22308</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
@@ -2615,10 +2633,10 @@
         <v>22308</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
@@ -2629,7 +2647,7 @@
         <v>22308</v>
       </c>
       <c r="C70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
@@ -2640,7 +2658,7 @@
         <v>22332</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
@@ -2651,7 +2669,7 @@
         <v>22333</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
@@ -2662,7 +2680,7 @@
         <v>22344</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
@@ -2673,7 +2691,7 @@
         <v>22346</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
@@ -2684,7 +2702,7 @@
         <v>23613</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
@@ -2695,7 +2713,7 @@
         <v>22362</v>
       </c>
       <c r="D76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
@@ -2706,7 +2724,7 @@
         <v>22363</v>
       </c>
       <c r="D77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
@@ -2717,7 +2735,7 @@
         <v>22364</v>
       </c>
       <c r="D78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
@@ -2728,7 +2746,7 @@
         <v>23658</v>
       </c>
       <c r="D79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
@@ -2739,7 +2757,7 @@
         <v>22385</v>
       </c>
       <c r="D80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
@@ -2750,7 +2768,7 @@
         <v>22384</v>
       </c>
       <c r="D81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
@@ -2761,10 +2779,10 @@
         <v>22316</v>
       </c>
       <c r="C82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
@@ -2775,10 +2793,10 @@
         <v>22316</v>
       </c>
       <c r="C83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
@@ -2789,10 +2807,10 @@
         <v>22316</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
@@ -2803,10 +2821,10 @@
         <v>22317</v>
       </c>
       <c r="C85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -2817,10 +2835,10 @@
         <v>22317</v>
       </c>
       <c r="C86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
@@ -2831,10 +2849,10 @@
         <v>22317</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
@@ -2845,7 +2863,7 @@
         <v>22331</v>
       </c>
       <c r="D88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
@@ -2856,7 +2874,7 @@
         <v>23631</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
@@ -2867,7 +2885,7 @@
         <v>22345</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
@@ -2878,7 +2896,7 @@
         <v>24346</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
@@ -2889,7 +2907,7 @@
         <v>22359</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
@@ -2900,7 +2918,7 @@
         <v>22377</v>
       </c>
       <c r="D93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
@@ -2911,7 +2929,7 @@
         <v>22356</v>
       </c>
       <c r="D94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
@@ -2922,7 +2940,7 @@
         <v>22379</v>
       </c>
       <c r="D95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
@@ -2933,7 +2951,7 @@
         <v>22313</v>
       </c>
       <c r="D96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
@@ -2944,7 +2962,7 @@
         <v>22318</v>
       </c>
       <c r="D97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
@@ -2955,7 +2973,7 @@
         <v>22315</v>
       </c>
       <c r="D98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
@@ -2966,7 +2984,7 @@
         <v>21306</v>
       </c>
       <c r="D99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
@@ -2977,10 +2995,10 @@
         <v>22314</v>
       </c>
       <c r="C100" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
@@ -2991,10 +3009,10 @@
         <v>22314</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
@@ -3005,7 +3023,7 @@
         <v>22319</v>
       </c>
       <c r="D102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
@@ -3016,7 +3034,7 @@
         <v>22320</v>
       </c>
       <c r="D103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
@@ -3027,7 +3045,7 @@
         <v>21196</v>
       </c>
       <c r="D104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
@@ -3038,7 +3056,7 @@
         <v>21229</v>
       </c>
       <c r="D105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
@@ -3049,10 +3067,10 @@
         <v>24932</v>
       </c>
       <c r="C106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
@@ -3063,10 +3081,10 @@
         <v>24932</v>
       </c>
       <c r="C107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
@@ -3077,7 +3095,7 @@
         <v>24986</v>
       </c>
       <c r="D108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
@@ -3088,10 +3106,10 @@
         <v>22334</v>
       </c>
       <c r="D109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E109" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
@@ -3102,7 +3120,7 @@
         <v>22543</v>
       </c>
       <c r="D110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
@@ -3113,7 +3131,7 @@
         <v>23733</v>
       </c>
       <c r="D111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
@@ -3124,7 +3142,7 @@
         <v>22335</v>
       </c>
       <c r="D112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
@@ -3135,7 +3153,7 @@
         <v>22336</v>
       </c>
       <c r="D113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
@@ -3146,7 +3164,7 @@
         <v>23596</v>
       </c>
       <c r="D114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
@@ -3157,7 +3175,7 @@
         <v>22337</v>
       </c>
       <c r="D115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
@@ -3168,7 +3186,7 @@
         <v>22410</v>
       </c>
       <c r="D116" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
@@ -3179,7 +3197,7 @@
         <v>22347</v>
       </c>
       <c r="D117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
@@ -3190,7 +3208,7 @@
         <v>22348</v>
       </c>
       <c r="D118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
@@ -3201,7 +3219,7 @@
         <v>22361</v>
       </c>
       <c r="D119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
@@ -3212,7 +3230,7 @@
         <v>22358</v>
       </c>
       <c r="D120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
@@ -3223,7 +3241,7 @@
         <v>22349</v>
       </c>
       <c r="D121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
@@ -3234,7 +3252,7 @@
         <v>22350</v>
       </c>
       <c r="D122" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
@@ -3245,7 +3263,7 @@
         <v>22351</v>
       </c>
       <c r="D123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
@@ -3256,7 +3274,7 @@
         <v>22338</v>
       </c>
       <c r="D124" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
@@ -3267,7 +3285,7 @@
         <v>22339</v>
       </c>
       <c r="D125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
@@ -3278,7 +3296,7 @@
         <v>22545</v>
       </c>
       <c r="D126" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
@@ -3289,7 +3307,7 @@
         <v>23736</v>
       </c>
       <c r="D127" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
@@ -3300,7 +3318,7 @@
         <v>22340</v>
       </c>
       <c r="D128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
@@ -3311,7 +3329,7 @@
         <v>22341</v>
       </c>
       <c r="D129" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
@@ -3322,7 +3340,7 @@
         <v>23597</v>
       </c>
       <c r="D130" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
@@ -3333,7 +3351,7 @@
         <v>22342</v>
       </c>
       <c r="D131" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
@@ -3344,7 +3362,7 @@
         <v>22355</v>
       </c>
       <c r="D132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
@@ -3355,7 +3373,7 @@
         <v>22354</v>
       </c>
       <c r="D133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
@@ -3366,7 +3384,7 @@
         <v>22352</v>
       </c>
       <c r="D134" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
@@ -3377,7 +3395,7 @@
         <v>22353</v>
       </c>
       <c r="D135" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
@@ -3399,7 +3417,7 @@
         <v>22411</v>
       </c>
       <c r="D137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
@@ -3410,7 +3428,7 @@
         <v>24122</v>
       </c>
       <c r="D138" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
@@ -3421,7 +3439,7 @@
         <v>25083</v>
       </c>
       <c r="D139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
@@ -3432,7 +3450,7 @@
         <v>22365</v>
       </c>
       <c r="D140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
@@ -3443,7 +3461,7 @@
         <v>22366</v>
       </c>
       <c r="D141" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
@@ -3454,7 +3472,7 @@
         <v>22367</v>
       </c>
       <c r="D142" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
@@ -3465,7 +3483,7 @@
         <v>25028</v>
       </c>
       <c r="D143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
@@ -3476,7 +3494,7 @@
         <v>22584</v>
       </c>
       <c r="D144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
@@ -3487,7 +3505,7 @@
         <v>22547</v>
       </c>
       <c r="D145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
@@ -3498,13 +3516,13 @@
         <v>22378</v>
       </c>
       <c r="C146" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D146" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
@@ -3515,10 +3533,10 @@
         <v>22378</v>
       </c>
       <c r="C147" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
@@ -3529,7 +3547,7 @@
         <v>22380</v>
       </c>
       <c r="D148" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
@@ -3540,7 +3558,7 @@
         <v>22369</v>
       </c>
       <c r="D149" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
@@ -3551,7 +3569,7 @@
         <v>22370</v>
       </c>
       <c r="D150" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
@@ -3562,7 +3580,7 @@
         <v>22371</v>
       </c>
       <c r="D151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
@@ -3573,7 +3591,7 @@
         <v>22416</v>
       </c>
       <c r="D152" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
@@ -3584,7 +3602,7 @@
         <v>22548</v>
       </c>
       <c r="D153" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
@@ -3595,7 +3613,7 @@
         <v>22326</v>
       </c>
       <c r="D154" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
@@ -3606,7 +3624,7 @@
         <v>22327</v>
       </c>
       <c r="D155" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
@@ -3617,7 +3635,7 @@
         <v>22329</v>
       </c>
       <c r="D156" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
@@ -3628,7 +3646,7 @@
         <v>22328</v>
       </c>
       <c r="D157" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
@@ -3639,7 +3657,7 @@
         <v>22404</v>
       </c>
       <c r="D158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
@@ -3650,7 +3668,7 @@
         <v>22405</v>
       </c>
       <c r="D159" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
@@ -3661,7 +3679,7 @@
         <v>22406</v>
       </c>
       <c r="D160" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
@@ -3672,7 +3690,7 @@
         <v>22419</v>
       </c>
       <c r="D161" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
@@ -3683,7 +3701,7 @@
         <v>22407</v>
       </c>
       <c r="D162" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
@@ -3694,7 +3712,7 @@
         <v>22408</v>
       </c>
       <c r="D163" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
@@ -3705,13 +3723,13 @@
         <v>22309</v>
       </c>
       <c r="C164" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D164" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E164" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
@@ -3722,10 +3740,10 @@
         <v>22309</v>
       </c>
       <c r="C165" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
@@ -3736,10 +3754,10 @@
         <v>22310</v>
       </c>
       <c r="C166" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D166" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
@@ -3750,10 +3768,10 @@
         <v>22310</v>
       </c>
       <c r="C167" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D167" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
@@ -3764,10 +3782,10 @@
         <v>22311</v>
       </c>
       <c r="C168" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D168" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
@@ -3778,10 +3796,10 @@
         <v>22311</v>
       </c>
       <c r="C169" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D169" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
@@ -3792,7 +3810,7 @@
         <v>22312</v>
       </c>
       <c r="D170" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
@@ -3803,7 +3821,7 @@
         <v>21274</v>
       </c>
       <c r="D171" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
@@ -3814,7 +3832,7 @@
         <v>22414</v>
       </c>
       <c r="D172" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
@@ -3825,7 +3843,7 @@
         <v>24044</v>
       </c>
       <c r="D173" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
@@ -3836,10 +3854,10 @@
         <v>22312</v>
       </c>
       <c r="D174" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E174" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
@@ -3850,10 +3868,10 @@
         <v>23179</v>
       </c>
       <c r="D175" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
@@ -3864,7 +3882,7 @@
         <v>23180</v>
       </c>
       <c r="D176" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
@@ -3875,7 +3893,7 @@
         <v>23191</v>
       </c>
       <c r="D177" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
@@ -3886,7 +3904,7 @@
         <v>15162</v>
       </c>
       <c r="D178" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
@@ -3908,7 +3926,7 @@
         <v>23182</v>
       </c>
       <c r="D180" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
@@ -3919,7 +3937,7 @@
         <v>23221</v>
       </c>
       <c r="D181" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
@@ -3930,7 +3948,7 @@
         <v>23734</v>
       </c>
       <c r="D182" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
@@ -3941,7 +3959,7 @@
         <v>23183</v>
       </c>
       <c r="D183" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
@@ -3952,7 +3970,7 @@
         <v>23184</v>
       </c>
       <c r="D184" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
@@ -3963,7 +3981,7 @@
         <v>23185</v>
       </c>
       <c r="D185" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
@@ -3974,7 +3992,7 @@
         <v>23210</v>
       </c>
       <c r="D186" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
@@ -3985,7 +4003,7 @@
         <v>23186</v>
       </c>
       <c r="D187" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
@@ -3996,7 +4014,7 @@
         <v>23187</v>
       </c>
       <c r="D188" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
@@ -4007,7 +4025,7 @@
         <v>23188</v>
       </c>
       <c r="D189" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
@@ -4018,7 +4036,7 @@
         <v>23189</v>
       </c>
       <c r="D190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
@@ -4029,7 +4047,7 @@
         <v>23787</v>
       </c>
       <c r="D191" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
@@ -4040,7 +4058,7 @@
         <v>23190</v>
       </c>
       <c r="D192" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
@@ -4051,7 +4069,7 @@
         <v>20748</v>
       </c>
       <c r="D193" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
@@ -4062,7 +4080,7 @@
         <v>24921</v>
       </c>
       <c r="D194" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
@@ -4073,7 +4091,7 @@
         <v>23228</v>
       </c>
       <c r="D195" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
@@ -4084,7 +4102,7 @@
         <v>23229</v>
       </c>
       <c r="D196" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
@@ -4095,7 +4113,7 @@
         <v>23209</v>
       </c>
       <c r="D197" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
@@ -4128,7 +4146,7 @@
         <v>26256</v>
       </c>
       <c r="D200" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
@@ -4139,7 +4157,7 @@
         <v>23230</v>
       </c>
       <c r="D201" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
@@ -4150,7 +4168,7 @@
         <v>23220</v>
       </c>
       <c r="D202" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
@@ -4161,7 +4179,7 @@
         <v>23196</v>
       </c>
       <c r="D203" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
@@ -4172,7 +4190,7 @@
         <v>23194</v>
       </c>
       <c r="D204" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
@@ -4183,7 +4201,7 @@
         <v>23195</v>
       </c>
       <c r="D205" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
@@ -4194,7 +4212,7 @@
         <v>21770</v>
       </c>
       <c r="D206" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
@@ -4205,7 +4223,7 @@
         <v>24824</v>
       </c>
       <c r="D207" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
@@ -4216,7 +4234,7 @@
         <v>24825</v>
       </c>
       <c r="D208" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
@@ -4227,7 +4245,7 @@
         <v>23197</v>
       </c>
       <c r="D209" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
@@ -4238,7 +4256,7 @@
         <v>23193</v>
       </c>
       <c r="D210" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
@@ -4249,7 +4267,7 @@
         <v>23192</v>
       </c>
       <c r="D211" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
@@ -4260,7 +4278,7 @@
         <v>26598</v>
       </c>
       <c r="D212" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
@@ -4271,7 +4289,7 @@
         <v>23198</v>
       </c>
       <c r="D213" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
@@ -4282,7 +4300,7 @@
         <v>23207</v>
       </c>
       <c r="D214" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
@@ -4293,7 +4311,7 @@
         <v>23208</v>
       </c>
       <c r="D215" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
@@ -4337,7 +4355,7 @@
         <v>24920</v>
       </c>
       <c r="D219" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
@@ -4348,10 +4366,10 @@
         <v>23213</v>
       </c>
       <c r="D220" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E220" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
@@ -4362,7 +4380,7 @@
         <v>23214</v>
       </c>
       <c r="D221" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
@@ -4373,7 +4391,7 @@
         <v>23215</v>
       </c>
       <c r="D222" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
@@ -4384,7 +4402,7 @@
         <v>23216</v>
       </c>
       <c r="D223" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
@@ -4395,7 +4413,7 @@
         <v>23218</v>
       </c>
       <c r="D224" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.45">
@@ -4406,7 +4424,7 @@
         <v>23219</v>
       </c>
       <c r="D225" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.45">
@@ -4417,7 +4435,7 @@
         <v>26515</v>
       </c>
       <c r="D226" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.45">
@@ -4428,7 +4446,7 @@
         <v>23211</v>
       </c>
       <c r="D227" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
@@ -4439,7 +4457,7 @@
         <v>23212</v>
       </c>
       <c r="D228" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
@@ -4450,7 +4468,7 @@
         <v>23590</v>
       </c>
       <c r="D229" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
@@ -4461,7 +4479,7 @@
         <v>23231</v>
       </c>
       <c r="D230" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.45">
@@ -4472,10 +4490,10 @@
         <v>24974</v>
       </c>
       <c r="D231" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E231" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
@@ -4486,7 +4504,7 @@
         <v>24990</v>
       </c>
       <c r="D232" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.45">
@@ -4497,13 +4515,13 @@
         <v>22423</v>
       </c>
       <c r="C233" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D233" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E233" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.45">
@@ -4514,13 +4532,13 @@
         <v>22423</v>
       </c>
       <c r="C234" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D234" t="s">
+        <v>276</v>
+      </c>
+      <c r="E234" t="s">
         <v>277</v>
-      </c>
-      <c r="E234" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.45">
@@ -4531,10 +4549,10 @@
         <v>22487</v>
       </c>
       <c r="C235" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D235" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.45">
@@ -4545,10 +4563,10 @@
         <v>22424</v>
       </c>
       <c r="C236" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D236" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.45">
@@ -4559,7 +4577,7 @@
         <v>22424</v>
       </c>
       <c r="D237" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.45">
@@ -4570,10 +4588,10 @@
         <v>22444</v>
       </c>
       <c r="C238" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D238" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.45">
@@ -4584,10 +4602,10 @@
         <v>22444</v>
       </c>
       <c r="C239" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D239" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.45">
@@ -4598,7 +4616,7 @@
         <v>22426</v>
       </c>
       <c r="D240" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
@@ -4609,7 +4627,7 @@
         <v>22542</v>
       </c>
       <c r="D241" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
@@ -4620,7 +4638,7 @@
         <v>23732</v>
       </c>
       <c r="D242" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
@@ -4631,7 +4649,7 @@
         <v>22427</v>
       </c>
       <c r="D243" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
@@ -4642,7 +4660,7 @@
         <v>22428</v>
       </c>
       <c r="D244" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
@@ -4653,7 +4671,7 @@
         <v>22429</v>
       </c>
       <c r="D245" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
@@ -4664,7 +4682,7 @@
         <v>23600</v>
       </c>
       <c r="D246" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
@@ -4675,7 +4693,7 @@
         <v>22430</v>
       </c>
       <c r="D247" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
@@ -4686,7 +4704,7 @@
         <v>22483</v>
       </c>
       <c r="D248" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
@@ -4697,7 +4715,7 @@
         <v>22431</v>
       </c>
       <c r="D249" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
@@ -4708,7 +4726,7 @@
         <v>22432</v>
       </c>
       <c r="D250" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
@@ -4719,7 +4737,7 @@
         <v>23628</v>
       </c>
       <c r="D251" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -4730,7 +4748,7 @@
         <v>22433</v>
       </c>
       <c r="D252" t="s">
-        <v>192</v>
+        <v>469</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
@@ -4752,7 +4770,7 @@
         <v>23808</v>
       </c>
       <c r="D254" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
@@ -4763,7 +4781,7 @@
         <v>22443</v>
       </c>
       <c r="D255" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
@@ -4774,7 +4792,7 @@
         <v>20747</v>
       </c>
       <c r="D256" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
@@ -4785,7 +4803,7 @@
         <v>22485</v>
       </c>
       <c r="D257" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
@@ -4796,7 +4814,7 @@
         <v>22434</v>
       </c>
       <c r="D258" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
@@ -4807,7 +4825,7 @@
         <v>22435</v>
       </c>
       <c r="D259" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
@@ -4818,7 +4836,7 @@
         <v>22544</v>
       </c>
       <c r="D260" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
@@ -4829,7 +4847,7 @@
         <v>23735</v>
       </c>
       <c r="D261" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
@@ -4840,7 +4858,7 @@
         <v>22436</v>
       </c>
       <c r="D262" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
@@ -4851,7 +4869,7 @@
         <v>22437</v>
       </c>
       <c r="D263" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
@@ -4862,7 +4880,7 @@
         <v>22438</v>
       </c>
       <c r="D264" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
@@ -4873,7 +4891,7 @@
         <v>23601</v>
       </c>
       <c r="D265" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
@@ -4884,7 +4902,7 @@
         <v>22439</v>
       </c>
       <c r="D266" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
@@ -4895,7 +4913,7 @@
         <v>22440</v>
       </c>
       <c r="D267" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
@@ -4906,7 +4924,7 @@
         <v>22441</v>
       </c>
       <c r="D268" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
@@ -4917,7 +4935,7 @@
         <v>23626</v>
       </c>
       <c r="D269" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
@@ -4928,7 +4946,7 @@
         <v>22442</v>
       </c>
       <c r="D270" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
@@ -4939,10 +4957,10 @@
         <v>22446</v>
       </c>
       <c r="C271" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D271" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
@@ -4953,10 +4971,10 @@
         <v>22446</v>
       </c>
       <c r="C272" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D272" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.45">
@@ -4967,10 +4985,10 @@
         <v>22587</v>
       </c>
       <c r="C273" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D273" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.45">
@@ -4981,10 +4999,10 @@
         <v>22588</v>
       </c>
       <c r="C274" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D274" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.45">
@@ -4995,10 +5013,10 @@
         <v>22589</v>
       </c>
       <c r="C275" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D275" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.45">
@@ -5009,10 +5027,10 @@
         <v>22590</v>
       </c>
       <c r="C276" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D276" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.45">
@@ -5023,10 +5041,10 @@
         <v>22591</v>
       </c>
       <c r="C277" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D277" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.45">
@@ -5037,10 +5055,10 @@
         <v>22592</v>
       </c>
       <c r="C278" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D278" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.45">
@@ -5051,10 +5069,10 @@
         <v>22593</v>
       </c>
       <c r="C279" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D279" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.45">
@@ -5065,10 +5083,10 @@
         <v>22594</v>
       </c>
       <c r="C280" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D280" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.45">
@@ -5079,10 +5097,10 @@
         <v>22595</v>
       </c>
       <c r="C281" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D281" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.45">
@@ -5093,10 +5111,10 @@
         <v>22596</v>
       </c>
       <c r="C282" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D282" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.45">
@@ -5107,10 +5125,10 @@
         <v>26572</v>
       </c>
       <c r="C283" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D283" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.45">
@@ -5121,7 +5139,7 @@
         <v>22447</v>
       </c>
       <c r="D284" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.45">
@@ -5132,7 +5150,7 @@
         <v>22448</v>
       </c>
       <c r="D285" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.45">
@@ -5143,10 +5161,10 @@
         <v>22450</v>
       </c>
       <c r="D286" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E286" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.45">
@@ -5157,7 +5175,7 @@
         <v>22449</v>
       </c>
       <c r="D287" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.45">
@@ -5168,7 +5186,7 @@
         <v>22451</v>
       </c>
       <c r="D288" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
@@ -5179,7 +5197,7 @@
         <v>23737</v>
       </c>
       <c r="D289" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
@@ -5190,7 +5208,7 @@
         <v>22457</v>
       </c>
       <c r="D290" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
@@ -5201,7 +5219,7 @@
         <v>22456</v>
       </c>
       <c r="D291" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
@@ -5212,7 +5230,7 @@
         <v>24821</v>
       </c>
       <c r="D292" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
@@ -5223,7 +5241,7 @@
         <v>24822</v>
       </c>
       <c r="D293" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
@@ -5245,7 +5263,7 @@
         <v>22479</v>
       </c>
       <c r="D295" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
@@ -5256,7 +5274,7 @@
         <v>22480</v>
       </c>
       <c r="D296" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
@@ -5267,7 +5285,7 @@
         <v>22467</v>
       </c>
       <c r="D297" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
@@ -5278,7 +5296,7 @@
         <v>22458</v>
       </c>
       <c r="D298" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
@@ -5289,7 +5307,7 @@
         <v>22462</v>
       </c>
       <c r="D299" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
@@ -5300,7 +5318,7 @@
         <v>22463</v>
       </c>
       <c r="D300" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
@@ -5311,7 +5329,7 @@
         <v>22464</v>
       </c>
       <c r="D301" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
@@ -5355,7 +5373,7 @@
         <v>26461</v>
       </c>
       <c r="D305" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.45">
@@ -5366,7 +5384,7 @@
         <v>26462</v>
       </c>
       <c r="D306" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.45">
@@ -5377,10 +5395,10 @@
         <v>24838</v>
       </c>
       <c r="D307" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E307" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.45">
@@ -5391,7 +5409,7 @@
         <v>24842</v>
       </c>
       <c r="D308" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.45">
@@ -5402,7 +5420,7 @@
         <v>24846</v>
       </c>
       <c r="D309" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.45">
@@ -5413,7 +5431,7 @@
         <v>24849</v>
       </c>
       <c r="D310" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.45">
@@ -5424,7 +5442,7 @@
         <v>24852</v>
       </c>
       <c r="D311" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.45">
@@ -5435,7 +5453,7 @@
         <v>24856</v>
       </c>
       <c r="D312" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.45">
@@ -5446,7 +5464,7 @@
         <v>24859</v>
       </c>
       <c r="D313" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.45">
@@ -5457,10 +5475,10 @@
         <v>7315</v>
       </c>
       <c r="D314" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E314" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.45">
@@ -5471,7 +5489,7 @@
         <v>7316</v>
       </c>
       <c r="D315" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.45">
@@ -5482,7 +5500,7 @@
         <v>6818</v>
       </c>
       <c r="D316" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.45">
@@ -5493,10 +5511,10 @@
         <v>23566</v>
       </c>
       <c r="D317" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E317" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.45">
@@ -5507,7 +5525,7 @@
         <v>23567</v>
       </c>
       <c r="D318" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.45">
@@ -5518,7 +5536,7 @@
         <v>24655</v>
       </c>
       <c r="D319" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.45">
@@ -5529,10 +5547,10 @@
         <v>23233</v>
       </c>
       <c r="D320" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E320" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
@@ -5543,7 +5561,7 @@
         <v>23234</v>
       </c>
       <c r="D321" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
@@ -5554,7 +5572,7 @@
         <v>23235</v>
       </c>
       <c r="D322" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
@@ -5565,7 +5583,7 @@
         <v>23240</v>
       </c>
       <c r="D323" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
@@ -5576,7 +5594,7 @@
         <v>23239</v>
       </c>
       <c r="D324" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
@@ -5587,7 +5605,7 @@
         <v>23237</v>
       </c>
       <c r="D325" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
@@ -5598,7 +5616,7 @@
         <v>23257</v>
       </c>
       <c r="D326" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
@@ -5609,7 +5627,7 @@
         <v>23251</v>
       </c>
       <c r="D327" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
@@ -5620,7 +5638,7 @@
         <v>23241</v>
       </c>
       <c r="D328" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
@@ -5631,7 +5649,7 @@
         <v>23242</v>
       </c>
       <c r="D329" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
@@ -5642,7 +5660,7 @@
         <v>23255</v>
       </c>
       <c r="D330" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
@@ -5653,7 +5671,7 @@
         <v>23254</v>
       </c>
       <c r="D331" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
@@ -5664,7 +5682,7 @@
         <v>23243</v>
       </c>
       <c r="D332" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
@@ -5675,7 +5693,7 @@
         <v>23244</v>
       </c>
       <c r="D333" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
@@ -5686,7 +5704,7 @@
         <v>25019</v>
       </c>
       <c r="D334" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
@@ -5697,10 +5715,10 @@
         <v>24695</v>
       </c>
       <c r="C335" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D335" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
@@ -5711,10 +5729,10 @@
         <v>24694</v>
       </c>
       <c r="C336" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D336" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
@@ -5725,10 +5743,10 @@
         <v>24696</v>
       </c>
       <c r="C337" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D337" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
@@ -5739,10 +5757,10 @@
         <v>24697</v>
       </c>
       <c r="C338" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D338" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
@@ -5753,10 +5771,10 @@
         <v>24698</v>
       </c>
       <c r="C339" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D339" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
@@ -5767,10 +5785,10 @@
         <v>24699</v>
       </c>
       <c r="C340" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D340" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
@@ -5781,10 +5799,10 @@
         <v>24700</v>
       </c>
       <c r="C341" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D341" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
@@ -5795,10 +5813,10 @@
         <v>24701</v>
       </c>
       <c r="C342" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D342" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
@@ -5809,10 +5827,10 @@
         <v>24702</v>
       </c>
       <c r="C343" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D343" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
@@ -5823,10 +5841,10 @@
         <v>24703</v>
       </c>
       <c r="C344" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D344" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
@@ -5837,10 +5855,10 @@
         <v>24704</v>
       </c>
       <c r="C345" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D345" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
@@ -5851,10 +5869,10 @@
         <v>24705</v>
       </c>
       <c r="C346" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D346" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
@@ -5865,10 +5883,10 @@
         <v>24707</v>
       </c>
       <c r="C347" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D347" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
@@ -5879,10 +5897,10 @@
         <v>24708</v>
       </c>
       <c r="C348" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D348" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
@@ -5893,10 +5911,10 @@
         <v>24709</v>
       </c>
       <c r="C349" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D349" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
@@ -5907,10 +5925,10 @@
         <v>24711</v>
       </c>
       <c r="C350" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D350" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
@@ -5921,10 +5939,10 @@
         <v>24710</v>
       </c>
       <c r="C351" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D351" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
@@ -5935,10 +5953,10 @@
         <v>24706</v>
       </c>
       <c r="C352" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D352" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
@@ -5949,10 +5967,10 @@
         <v>22175</v>
       </c>
       <c r="C353" t="s">
+        <v>302</v>
+      </c>
+      <c r="D353" t="s">
         <v>303</v>
-      </c>
-      <c r="D353" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
@@ -5963,7 +5981,7 @@
         <v>22176</v>
       </c>
       <c r="C354" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D354" t="s">
         <v>8</v>
@@ -5977,10 +5995,10 @@
         <v>22177</v>
       </c>
       <c r="C355" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D355" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
@@ -5991,10 +6009,10 @@
         <v>23591</v>
       </c>
       <c r="C356" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D356" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
@@ -6005,10 +6023,10 @@
         <v>22178</v>
       </c>
       <c r="C357" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D357" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
@@ -6019,10 +6037,10 @@
         <v>22180</v>
       </c>
       <c r="C358" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D358" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
@@ -6033,10 +6051,10 @@
         <v>22179</v>
       </c>
       <c r="C359" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D359" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
@@ -6047,10 +6065,10 @@
         <v>24903</v>
       </c>
       <c r="C360" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D360" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
@@ -6061,10 +6079,10 @@
         <v>22183</v>
       </c>
       <c r="C361" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D361" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
@@ -6075,10 +6093,10 @@
         <v>22185</v>
       </c>
       <c r="C362" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D362" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
@@ -6089,10 +6107,10 @@
         <v>22186</v>
       </c>
       <c r="C363" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D363" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
@@ -6103,10 +6121,10 @@
         <v>22188</v>
       </c>
       <c r="C364" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D364" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
@@ -6117,10 +6135,10 @@
         <v>22189</v>
       </c>
       <c r="C365" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D365" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
@@ -6131,10 +6149,10 @@
         <v>22191</v>
       </c>
       <c r="C366" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D366" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.45">
@@ -6145,10 +6163,10 @@
         <v>22192</v>
       </c>
       <c r="C367" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D367" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.45">
@@ -6159,10 +6177,10 @@
         <v>22194</v>
       </c>
       <c r="C368" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D368" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.45">
@@ -6173,10 +6191,10 @@
         <v>22195</v>
       </c>
       <c r="C369" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D369" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.45">
@@ -6187,10 +6205,10 @@
         <v>22196</v>
       </c>
       <c r="C370" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D370" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
@@ -6201,10 +6219,10 @@
         <v>22198</v>
       </c>
       <c r="C371" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D371" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.45">
@@ -6215,10 +6233,10 @@
         <v>22301</v>
       </c>
       <c r="C372" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D372" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.45">
@@ -6229,10 +6247,10 @@
         <v>21164</v>
       </c>
       <c r="C373" t="s">
+        <v>319</v>
+      </c>
+      <c r="D373" t="s">
         <v>320</v>
-      </c>
-      <c r="D373" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.45">
@@ -6243,10 +6261,10 @@
         <v>21167</v>
       </c>
       <c r="C374" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D374" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.45">
@@ -6257,10 +6275,10 @@
         <v>22303</v>
       </c>
       <c r="C375" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D375" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.45">
@@ -6271,10 +6289,10 @@
         <v>22302</v>
       </c>
       <c r="C376" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D376" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.45">
@@ -6285,10 +6303,10 @@
         <v>26470</v>
       </c>
       <c r="C377" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D377" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
@@ -6299,10 +6317,10 @@
         <v>24897</v>
       </c>
       <c r="C378" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D378" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.45">
@@ -6313,10 +6331,10 @@
         <v>24894</v>
       </c>
       <c r="C379" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D379" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.45">
@@ -6327,10 +6345,10 @@
         <v>24895</v>
       </c>
       <c r="C380" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D380" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.45">
@@ -6341,10 +6359,10 @@
         <v>25052</v>
       </c>
       <c r="C381" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D381" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.45">
@@ -6355,10 +6373,10 @@
         <v>23978</v>
       </c>
       <c r="C382" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D382" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.45">
@@ -6369,10 +6387,10 @@
         <v>23983</v>
       </c>
       <c r="C383" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D383" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.45">
@@ -6383,10 +6401,10 @@
         <v>23868</v>
       </c>
       <c r="C384" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D384" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.45">
@@ -6397,10 +6415,10 @@
         <v>23869</v>
       </c>
       <c r="C385" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D385" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.45">
@@ -6411,10 +6429,10 @@
         <v>23870</v>
       </c>
       <c r="C386" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D386" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.45">
@@ -6425,10 +6443,10 @@
         <v>23873</v>
       </c>
       <c r="C387" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D387" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.45">
@@ -6439,10 +6457,10 @@
         <v>23874</v>
       </c>
       <c r="C388" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D388" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.45">
@@ -6453,10 +6471,10 @@
         <v>23875</v>
       </c>
       <c r="C389" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D389" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.45">
@@ -6467,10 +6485,10 @@
         <v>23876</v>
       </c>
       <c r="C390" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D390" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.45">
@@ -6481,10 +6499,10 @@
         <v>23877</v>
       </c>
       <c r="C391" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D391" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.45">
@@ -6495,10 +6513,10 @@
         <v>23878</v>
       </c>
       <c r="C392" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D392" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.45">
@@ -6509,10 +6527,10 @@
         <v>23879</v>
       </c>
       <c r="C393" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D393" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.45">
@@ -6523,10 +6541,10 @@
         <v>23880</v>
       </c>
       <c r="C394" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D394" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.45">
@@ -6537,10 +6555,10 @@
         <v>23881</v>
       </c>
       <c r="C395" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D395" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.45">
@@ -6551,10 +6569,10 @@
         <v>23882</v>
       </c>
       <c r="C396" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D396" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.45">
@@ -6565,10 +6583,10 @@
         <v>23883</v>
       </c>
       <c r="C397" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D397" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.45">
@@ -6579,10 +6597,10 @@
         <v>23884</v>
       </c>
       <c r="C398" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D398" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.45">
@@ -6593,10 +6611,10 @@
         <v>23885</v>
       </c>
       <c r="C399" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D399" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.45">
@@ -6607,10 +6625,10 @@
         <v>23886</v>
       </c>
       <c r="C400" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D400" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.45">
@@ -6621,10 +6639,10 @@
         <v>26659</v>
       </c>
       <c r="C401" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D401" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.45">
@@ -6635,10 +6653,10 @@
         <v>23887</v>
       </c>
       <c r="C402" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D402" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.45">
@@ -6649,10 +6667,10 @@
         <v>24123</v>
       </c>
       <c r="C403" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D403" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.45">
@@ -6663,10 +6681,10 @@
         <v>26202</v>
       </c>
       <c r="C404" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D404" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.45">
@@ -6677,10 +6695,10 @@
         <v>26203</v>
       </c>
       <c r="C405" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D405" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.45">
@@ -6691,10 +6709,10 @@
         <v>23888</v>
       </c>
       <c r="C406" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D406" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.45">
@@ -6705,10 +6723,10 @@
         <v>23871</v>
       </c>
       <c r="C407" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D407" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.45">
@@ -6719,10 +6737,10 @@
         <v>23872</v>
       </c>
       <c r="C408" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D408" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.45">
@@ -6733,10 +6751,10 @@
         <v>24088</v>
       </c>
       <c r="C409" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D409" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.45">
@@ -6747,10 +6765,10 @@
         <v>23889</v>
       </c>
       <c r="C410" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D410" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.45">
@@ -6761,10 +6779,10 @@
         <v>23890</v>
       </c>
       <c r="C411" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D411" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.45">
@@ -6775,10 +6793,10 @@
         <v>23891</v>
       </c>
       <c r="C412" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D412" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.45">
@@ -6789,10 +6807,10 @@
         <v>24873</v>
       </c>
       <c r="C413" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D413" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.45">
@@ -6803,10 +6821,10 @@
         <v>24874</v>
       </c>
       <c r="C414" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D414" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
@@ -6817,10 +6835,10 @@
         <v>24875</v>
       </c>
       <c r="C415" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D415" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
@@ -6831,10 +6849,10 @@
         <v>24876</v>
       </c>
       <c r="C416" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D416" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.45">
@@ -6845,10 +6863,10 @@
         <v>24877</v>
       </c>
       <c r="C417" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D417" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.45">
@@ -6859,10 +6877,10 @@
         <v>24878</v>
       </c>
       <c r="C418" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D418" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.45">
@@ -6873,10 +6891,10 @@
         <v>24879</v>
       </c>
       <c r="C419" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D419" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.45">
@@ -6887,10 +6905,10 @@
         <v>24089</v>
       </c>
       <c r="C420" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D420" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.45">
@@ -6901,10 +6919,10 @@
         <v>23892</v>
       </c>
       <c r="C421" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D421" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.45">
@@ -6915,10 +6933,10 @@
         <v>24095</v>
       </c>
       <c r="C422" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D422" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.45">
@@ -6929,10 +6947,10 @@
         <v>24174</v>
       </c>
       <c r="C423" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D423" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.45">
@@ -6943,10 +6961,10 @@
         <v>23893</v>
       </c>
       <c r="C424" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D424" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.45">
@@ -6957,10 +6975,10 @@
         <v>23894</v>
       </c>
       <c r="C425" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D425" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.45">
@@ -6971,10 +6989,10 @@
         <v>23895</v>
       </c>
       <c r="C426" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D426" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.45">
@@ -6985,10 +7003,10 @@
         <v>23984</v>
       </c>
       <c r="C427" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D427" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.45">
@@ -6999,10 +7017,10 @@
         <v>23985</v>
       </c>
       <c r="C428" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D428" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.45">
@@ -7013,10 +7031,10 @@
         <v>24090</v>
       </c>
       <c r="C429" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D429" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.45">
@@ -7027,10 +7045,10 @@
         <v>25007</v>
       </c>
       <c r="C430" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D430" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.45">
@@ -7041,10 +7059,10 @@
         <v>23988</v>
       </c>
       <c r="C431" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D431" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.45">
@@ -7055,10 +7073,10 @@
         <v>24038</v>
       </c>
       <c r="C432" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D432" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.45">
@@ -7069,10 +7087,10 @@
         <v>23987</v>
       </c>
       <c r="C433" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D433" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
@@ -7083,10 +7101,10 @@
         <v>25003</v>
       </c>
       <c r="C434" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D434" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.45">
@@ -7097,10 +7115,10 @@
         <v>24085</v>
       </c>
       <c r="C435" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D435" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.45">
@@ -7111,10 +7129,10 @@
         <v>25004</v>
       </c>
       <c r="C436" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D436" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.45">
@@ -7125,10 +7143,10 @@
         <v>23989</v>
       </c>
       <c r="C437" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D437" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.45">
@@ -7139,10 +7157,10 @@
         <v>24032</v>
       </c>
       <c r="C438" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D438" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.45">
@@ -7153,10 +7171,10 @@
         <v>23990</v>
       </c>
       <c r="C439" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D439" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
@@ -7167,10 +7185,10 @@
         <v>24034</v>
       </c>
       <c r="C440" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D440" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
@@ -7181,10 +7199,10 @@
         <v>23991</v>
       </c>
       <c r="C441" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D441" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
@@ -7195,10 +7213,10 @@
         <v>24036</v>
       </c>
       <c r="C442" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D442" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
@@ -7209,10 +7227,10 @@
         <v>24086</v>
       </c>
       <c r="C443" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D443" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.45">
@@ -7223,10 +7241,10 @@
         <v>25005</v>
       </c>
       <c r="C444" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D444" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.45">
@@ -7237,10 +7255,10 @@
         <v>24087</v>
       </c>
       <c r="C445" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D445" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.45">
@@ -7251,10 +7269,10 @@
         <v>25006</v>
       </c>
       <c r="C446" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D446" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.45">
@@ -7265,10 +7283,10 @@
         <v>23986</v>
       </c>
       <c r="C447" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D447" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.45">
@@ -7279,10 +7297,10 @@
         <v>24092</v>
       </c>
       <c r="C448" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D448" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.45">
@@ -7293,10 +7311,10 @@
         <v>24093</v>
       </c>
       <c r="C449" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D449" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.45">
@@ -7307,10 +7325,10 @@
         <v>24094</v>
       </c>
       <c r="C450" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D450" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.45">
@@ -7321,10 +7339,10 @@
         <v>23896</v>
       </c>
       <c r="C451" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D451" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.45">
@@ -7335,10 +7353,10 @@
         <v>22248</v>
       </c>
       <c r="C452" t="s">
+        <v>397</v>
+      </c>
+      <c r="D452" t="s">
         <v>398</v>
-      </c>
-      <c r="D452" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.45">
@@ -7349,10 +7367,10 @@
         <v>22251</v>
       </c>
       <c r="C453" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D453" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.45">
@@ -7363,10 +7381,10 @@
         <v>20743</v>
       </c>
       <c r="C454" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D454" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.45">
@@ -7377,10 +7395,10 @@
         <v>20723</v>
       </c>
       <c r="C455" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D455" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.45">
@@ -7391,10 +7409,10 @@
         <v>20723</v>
       </c>
       <c r="C456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D456" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.45">
@@ -7405,10 +7423,10 @@
         <v>21147</v>
       </c>
       <c r="C457" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D457" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.45">
@@ -7419,10 +7437,10 @@
         <v>21146</v>
       </c>
       <c r="C458" t="s">
+        <v>401</v>
+      </c>
+      <c r="D458" t="s">
         <v>402</v>
-      </c>
-      <c r="D458" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.45">
@@ -7433,10 +7451,10 @@
         <v>21148</v>
       </c>
       <c r="C459" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D459" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.45">
@@ -7447,10 +7465,10 @@
         <v>21149</v>
       </c>
       <c r="C460" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D460" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.45">
@@ -7461,10 +7479,10 @@
         <v>21150</v>
       </c>
       <c r="C461" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D461" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.45">
@@ -7475,10 +7493,10 @@
         <v>21151</v>
       </c>
       <c r="C462" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D462" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.45">
@@ -7489,10 +7507,10 @@
         <v>23637</v>
       </c>
       <c r="C463" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D463" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.45">
@@ -7503,10 +7521,10 @@
         <v>23638</v>
       </c>
       <c r="C464" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D464" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.45">
@@ -7517,10 +7535,10 @@
         <v>20723</v>
       </c>
       <c r="C465" t="s">
+        <v>410</v>
+      </c>
+      <c r="D465" t="s">
         <v>411</v>
-      </c>
-      <c r="D465" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.45">
@@ -7531,10 +7549,10 @@
         <v>22084</v>
       </c>
       <c r="C466" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D466" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.45">
@@ -7545,10 +7563,10 @@
         <v>22085</v>
       </c>
       <c r="C467" t="s">
+        <v>412</v>
+      </c>
+      <c r="D467" t="s">
         <v>413</v>
-      </c>
-      <c r="D467" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.45">
@@ -7559,10 +7577,10 @@
         <v>24908</v>
       </c>
       <c r="C468" t="s">
+        <v>415</v>
+      </c>
+      <c r="D468" t="s">
         <v>416</v>
-      </c>
-      <c r="D468" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.45">
@@ -7573,10 +7591,10 @@
         <v>21346</v>
       </c>
       <c r="C469" t="s">
+        <v>417</v>
+      </c>
+      <c r="D469" t="s">
         <v>418</v>
-      </c>
-      <c r="D469" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.45">
@@ -7587,10 +7605,10 @@
         <v>26662</v>
       </c>
       <c r="C470" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D470" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.45">
@@ -7601,10 +7619,10 @@
         <v>21530</v>
       </c>
       <c r="C471" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D471" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.45">
@@ -7615,10 +7633,10 @@
         <v>21521</v>
       </c>
       <c r="C472" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D472" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.45">
@@ -7629,10 +7647,10 @@
         <v>22206</v>
       </c>
       <c r="C473" t="s">
+        <v>421</v>
+      </c>
+      <c r="D473" t="s">
         <v>422</v>
-      </c>
-      <c r="D473" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.45">
@@ -7643,10 +7661,10 @@
         <v>22207</v>
       </c>
       <c r="C474" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D474" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.45">
@@ -7657,10 +7675,10 @@
         <v>22208</v>
       </c>
       <c r="C475" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D475" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.45">
@@ -7671,10 +7689,10 @@
         <v>22209</v>
       </c>
       <c r="C476" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D476" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.45">
@@ -7685,10 +7703,10 @@
         <v>22212</v>
       </c>
       <c r="C477" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D477" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.45">
@@ -7699,10 +7717,10 @@
         <v>22213</v>
       </c>
       <c r="C478" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D478" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.45">
@@ -7713,10 +7731,10 @@
         <v>22215</v>
       </c>
       <c r="C479" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D479" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.45">
@@ -7727,10 +7745,10 @@
         <v>22216</v>
       </c>
       <c r="C480" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D480" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.45">
@@ -7741,10 +7759,10 @@
         <v>22217</v>
       </c>
       <c r="C481" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D481" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.45">
@@ -7755,10 +7773,10 @@
         <v>22218</v>
       </c>
       <c r="C482" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D482" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.45">
@@ -7769,10 +7787,10 @@
         <v>22219</v>
       </c>
       <c r="C483" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D483" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.45">
@@ -7783,10 +7801,10 @@
         <v>22220</v>
       </c>
       <c r="C484" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D484" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.45">
@@ -7797,10 +7815,10 @@
         <v>22214</v>
       </c>
       <c r="C485" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D485" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.45">
@@ -7811,10 +7829,10 @@
         <v>22225</v>
       </c>
       <c r="C486" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D486" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.45">
@@ -7825,10 +7843,10 @@
         <v>22211</v>
       </c>
       <c r="C487" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D487" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.45">
@@ -7839,10 +7857,10 @@
         <v>22221</v>
       </c>
       <c r="C488" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D488" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.45">
@@ -7853,10 +7871,10 @@
         <v>22222</v>
       </c>
       <c r="C489" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D489" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.45">
@@ -7867,10 +7885,10 @@
         <v>22223</v>
       </c>
       <c r="C490" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D490" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.45">
@@ -7881,10 +7899,10 @@
         <v>22224</v>
       </c>
       <c r="C491" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D491" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.45">
@@ -7895,10 +7913,10 @@
         <v>22756</v>
       </c>
       <c r="C492" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D492" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.45">
@@ -7909,10 +7927,10 @@
         <v>22757</v>
       </c>
       <c r="C493" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D493" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.45">
@@ -7923,10 +7941,10 @@
         <v>22759</v>
       </c>
       <c r="C494" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D494" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.45">
@@ -7937,10 +7955,10 @@
         <v>22761</v>
       </c>
       <c r="C495" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D495" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.45">
@@ -7951,10 +7969,10 @@
         <v>22760</v>
       </c>
       <c r="C496" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D496" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.45">
@@ -7965,10 +7983,10 @@
         <v>22767</v>
       </c>
       <c r="C497" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D497" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.45">
@@ -7979,10 +7997,10 @@
         <v>22766</v>
       </c>
       <c r="C498" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D498" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.45">
@@ -7993,10 +8011,10 @@
         <v>22763</v>
       </c>
       <c r="C499" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D499" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.45">
@@ -8007,10 +8025,10 @@
         <v>22764</v>
       </c>
       <c r="C500" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D500" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.45">
@@ -8021,10 +8039,10 @@
         <v>22765</v>
       </c>
       <c r="C501" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D501" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.45">
@@ -8035,10 +8053,10 @@
         <v>21557</v>
       </c>
       <c r="C502" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D502" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.45">
@@ -8049,10 +8067,10 @@
         <v>21521</v>
       </c>
       <c r="C503" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D503" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.45">
@@ -8063,7 +8081,7 @@
         <v>21547</v>
       </c>
       <c r="C504" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.45">
@@ -8074,10 +8092,10 @@
         <v>23660</v>
       </c>
       <c r="C505" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D505" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.45">
@@ -8088,10 +8106,10 @@
         <v>23661</v>
       </c>
       <c r="C506" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D506" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.45">
@@ -8102,10 +8120,10 @@
         <v>23649</v>
       </c>
       <c r="C507" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D507" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.45">
@@ -8116,10 +8134,10 @@
         <v>23650</v>
       </c>
       <c r="C508" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D508" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.45">
@@ -8130,10 +8148,10 @@
         <v>26707</v>
       </c>
       <c r="C509" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D509" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.45">
@@ -8144,10 +8162,10 @@
         <v>26707</v>
       </c>
       <c r="C510" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D510" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.45">
@@ -8158,10 +8176,10 @@
         <v>21863</v>
       </c>
       <c r="C511" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D511" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.45">
@@ -8172,10 +8190,10 @@
         <v>21864</v>
       </c>
       <c r="C512" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D512" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.45">
@@ -8186,10 +8204,10 @@
         <v>23728</v>
       </c>
       <c r="C513" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D513" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.45">
@@ -8200,10 +8218,10 @@
         <v>21865</v>
       </c>
       <c r="C514" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D514" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.45">
@@ -8214,10 +8232,10 @@
         <v>21866</v>
       </c>
       <c r="C515" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D515" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.45">
@@ -8228,10 +8246,10 @@
         <v>21867</v>
       </c>
       <c r="C516" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D516" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.45">
@@ -8242,10 +8260,10 @@
         <v>23974</v>
       </c>
       <c r="C517" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D517" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.45">
@@ -8256,10 +8274,10 @@
         <v>21868</v>
       </c>
       <c r="C518" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D518" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.45">
@@ -8270,10 +8288,10 @@
         <v>22053</v>
       </c>
       <c r="C519" t="s">
+        <v>448</v>
+      </c>
+      <c r="D519" t="s">
         <v>449</v>
-      </c>
-      <c r="D519" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.45">
@@ -8284,10 +8302,10 @@
         <v>21869</v>
       </c>
       <c r="C520" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D520" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.45">
@@ -8298,10 +8316,10 @@
         <v>21870</v>
       </c>
       <c r="C521" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D521" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.45">
@@ -8312,10 +8330,10 @@
         <v>21871</v>
       </c>
       <c r="C522" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D522" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
@@ -8326,10 +8344,10 @@
         <v>22048</v>
       </c>
       <c r="C523" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D523" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
@@ -8340,10 +8358,10 @@
         <v>22049</v>
       </c>
       <c r="C524" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D524" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.45">
@@ -8354,10 +8372,10 @@
         <v>21874</v>
       </c>
       <c r="C525" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D525" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.45">
@@ -8368,10 +8386,10 @@
         <v>21981</v>
       </c>
       <c r="C526" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D526" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.45">
@@ -8382,10 +8400,10 @@
         <v>21984</v>
       </c>
       <c r="C527" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D527" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.45">
@@ -8396,10 +8414,10 @@
         <v>21873</v>
       </c>
       <c r="C528" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D528" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.45">
@@ -8410,10 +8428,10 @@
         <v>21872</v>
       </c>
       <c r="C529" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D529" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.45">
@@ -8424,10 +8442,10 @@
         <v>24649</v>
       </c>
       <c r="C530" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D530" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.45">
@@ -8438,10 +8456,10 @@
         <v>21941</v>
       </c>
       <c r="C531" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D531" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
@@ -8452,10 +8470,10 @@
         <v>21942</v>
       </c>
       <c r="C532" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D532" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
@@ -8466,10 +8484,10 @@
         <v>26701</v>
       </c>
       <c r="C533" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D533" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
@@ -8480,10 +8498,10 @@
         <v>22554</v>
       </c>
       <c r="C534" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D534" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.45">
@@ -8494,10 +8512,10 @@
         <v>22555</v>
       </c>
       <c r="C535" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D535" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.45">
@@ -8508,10 +8526,10 @@
         <v>22316</v>
       </c>
       <c r="C536" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D536" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.45">
@@ -8522,10 +8540,10 @@
         <v>22556</v>
       </c>
       <c r="C537" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D537" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.45">
@@ -8536,10 +8554,10 @@
         <v>22554</v>
       </c>
       <c r="C538" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D538" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.45">
@@ -8550,10 +8568,10 @@
         <v>22555</v>
       </c>
       <c r="C539" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D539" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
@@ -8564,10 +8582,10 @@
         <v>22556</v>
       </c>
       <c r="C540" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D540" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
@@ -8578,10 +8596,10 @@
         <v>22558</v>
       </c>
       <c r="C541" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D541" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
@@ -8592,10 +8610,10 @@
         <v>22557</v>
       </c>
       <c r="C542" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D542" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
@@ -8606,10 +8624,66 @@
         <v>22564</v>
       </c>
       <c r="C543" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D543" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A544" t="s">
+        <v>6</v>
+      </c>
+      <c r="B544">
+        <v>21317</v>
+      </c>
+      <c r="C544" t="s">
         <v>464</v>
+      </c>
+      <c r="D544" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A545" t="s">
+        <v>28</v>
+      </c>
+      <c r="B545">
+        <v>26607</v>
+      </c>
+      <c r="C545" t="s">
+        <v>466</v>
+      </c>
+      <c r="D545" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A546" t="s">
+        <v>28</v>
+      </c>
+      <c r="B546">
+        <v>26616</v>
+      </c>
+      <c r="C546" t="s">
+        <v>466</v>
+      </c>
+      <c r="D546" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A547" t="s">
+        <v>28</v>
+      </c>
+      <c r="B547">
+        <v>21641</v>
+      </c>
+      <c r="C547" t="s">
+        <v>243</v>
+      </c>
+      <c r="D547" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Controls.xlsx
+++ b/Files/Controls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl-Otto\Documents\src\NVDA\VismaAdministration\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\NVDA\VismaAdministration\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2861600-8B09-409D-9027-E4BAB7602282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CCD753-4A51-4432-93DD-97CF5978B0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="23040" windowHeight="12232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="4448" windowWidth="23040" windowHeight="12232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="471">
   <si>
     <t>WindowClassName</t>
   </si>
@@ -1763,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E547"/>
+  <dimension ref="A1:E548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="A547" sqref="A547:XFD547"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="D548" sqref="D548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8686,6 +8686,20 @@
         <v>470</v>
       </c>
     </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A548" t="s">
+        <v>6</v>
+      </c>
+      <c r="B548">
+        <v>24748</v>
+      </c>
+      <c r="C548" t="s">
+        <v>252</v>
+      </c>
+      <c r="D548" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Files/Controls.xlsx
+++ b/Files/Controls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\NVDA\VismaAdministration\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CCD753-4A51-4432-93DD-97CF5978B0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7CBC2-89B6-4BAE-B305-F7AE47CCEA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="4448" windowWidth="23040" windowHeight="12232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="16876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="486">
   <si>
     <t>WindowClassName</t>
   </si>
@@ -1446,6 +1446,51 @@
   </si>
   <si>
     <t>Strukturartiklar</t>
+  </si>
+  <si>
+    <t>Leverantörens namn</t>
+  </si>
+  <si>
+    <t>Projekt:</t>
+  </si>
+  <si>
+    <t>Beställningsdatum</t>
+  </si>
+  <si>
+    <t>Leverantörens ordernummer</t>
+  </si>
+  <si>
+    <t>Skickad</t>
+  </si>
+  <si>
+    <t>Avvik. Namn</t>
+  </si>
+  <si>
+    <t>Avvik. Postadress</t>
+  </si>
+  <si>
+    <t>Avvik. Postadress 2</t>
+  </si>
+  <si>
+    <t>Avvik. GLN</t>
+  </si>
+  <si>
+    <t>Avvik. Postnummer</t>
+  </si>
+  <si>
+    <t>Avvik. Ort</t>
+  </si>
+  <si>
+    <t>Avvik. Besöksadress</t>
+  </si>
+  <si>
+    <t>Avvik. Landskod</t>
+  </si>
+  <si>
+    <t>Artiklar</t>
+  </si>
+  <si>
+    <t>Spårningsval</t>
   </si>
 </sst>
 </file>
@@ -1763,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E548"/>
+  <dimension ref="A1:E585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="D548" sqref="D548"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D585" sqref="A1:E585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8700,6 +8745,524 @@
         <v>296</v>
       </c>
     </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A549" t="s">
+        <v>6</v>
+      </c>
+      <c r="B549">
+        <v>22770</v>
+      </c>
+      <c r="C549" t="s">
+        <v>247</v>
+      </c>
+      <c r="D549" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A550" t="s">
+        <v>6</v>
+      </c>
+      <c r="B550">
+        <v>22772</v>
+      </c>
+      <c r="C550" t="s">
+        <v>247</v>
+      </c>
+      <c r="D550" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A551" t="s">
+        <v>6</v>
+      </c>
+      <c r="B551">
+        <v>22793</v>
+      </c>
+      <c r="C551" t="s">
+        <v>247</v>
+      </c>
+      <c r="D551" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A552" t="s">
+        <v>6</v>
+      </c>
+      <c r="B552">
+        <v>22807</v>
+      </c>
+      <c r="C552" t="s">
+        <v>247</v>
+      </c>
+      <c r="D552" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A553" t="s">
+        <v>6</v>
+      </c>
+      <c r="B553">
+        <v>22794</v>
+      </c>
+      <c r="C553" t="s">
+        <v>247</v>
+      </c>
+      <c r="D553" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A554" t="s">
+        <v>6</v>
+      </c>
+      <c r="B554">
+        <v>22798</v>
+      </c>
+      <c r="C554" t="s">
+        <v>247</v>
+      </c>
+      <c r="D554" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A555" t="s">
+        <v>6</v>
+      </c>
+      <c r="B555">
+        <v>22797</v>
+      </c>
+      <c r="C555" t="s">
+        <v>247</v>
+      </c>
+      <c r="D555" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A556" t="s">
+        <v>6</v>
+      </c>
+      <c r="B556">
+        <v>22795</v>
+      </c>
+      <c r="C556" t="s">
+        <v>247</v>
+      </c>
+      <c r="D556" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A557" t="s">
+        <v>6</v>
+      </c>
+      <c r="B557">
+        <v>22796</v>
+      </c>
+      <c r="C557" t="s">
+        <v>247</v>
+      </c>
+      <c r="D557" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A558" t="s">
+        <v>6</v>
+      </c>
+      <c r="B558">
+        <v>22788</v>
+      </c>
+      <c r="C558" t="s">
+        <v>247</v>
+      </c>
+      <c r="D558" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A559" t="s">
+        <v>19</v>
+      </c>
+      <c r="B559">
+        <v>22792</v>
+      </c>
+      <c r="C559" t="s">
+        <v>247</v>
+      </c>
+      <c r="D559" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A560" t="s">
+        <v>6</v>
+      </c>
+      <c r="B560">
+        <v>22770</v>
+      </c>
+      <c r="C560" t="s">
+        <v>247</v>
+      </c>
+      <c r="D560" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A561" t="s">
+        <v>6</v>
+      </c>
+      <c r="B561">
+        <v>22772</v>
+      </c>
+      <c r="C561" t="s">
+        <v>247</v>
+      </c>
+      <c r="D561" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A562" t="s">
+        <v>6</v>
+      </c>
+      <c r="B562">
+        <v>22774</v>
+      </c>
+      <c r="C562" t="s">
+        <v>247</v>
+      </c>
+      <c r="D562" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A563" t="s">
+        <v>6</v>
+      </c>
+      <c r="B563">
+        <v>23170</v>
+      </c>
+      <c r="C563" t="s">
+        <v>247</v>
+      </c>
+      <c r="D563" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A564" t="s">
+        <v>6</v>
+      </c>
+      <c r="B564">
+        <v>23730</v>
+      </c>
+      <c r="C564" t="s">
+        <v>247</v>
+      </c>
+      <c r="D564" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A565" t="s">
+        <v>6</v>
+      </c>
+      <c r="B565">
+        <v>22776</v>
+      </c>
+      <c r="C565" t="s">
+        <v>247</v>
+      </c>
+      <c r="D565" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A566" t="s">
+        <v>6</v>
+      </c>
+      <c r="B566">
+        <v>22777</v>
+      </c>
+      <c r="C566" t="s">
+        <v>247</v>
+      </c>
+      <c r="D566" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A567" t="s">
+        <v>6</v>
+      </c>
+      <c r="B567">
+        <v>23598</v>
+      </c>
+      <c r="C567" t="s">
+        <v>247</v>
+      </c>
+      <c r="D567" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A568" t="s">
+        <v>6</v>
+      </c>
+      <c r="B568">
+        <v>22778</v>
+      </c>
+      <c r="C568" t="s">
+        <v>247</v>
+      </c>
+      <c r="D568" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A569" t="s">
+        <v>6</v>
+      </c>
+      <c r="B569">
+        <v>22804</v>
+      </c>
+      <c r="C569" t="s">
+        <v>247</v>
+      </c>
+      <c r="D569" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A570" t="s">
+        <v>6</v>
+      </c>
+      <c r="B570">
+        <v>22786</v>
+      </c>
+      <c r="C570" t="s">
+        <v>247</v>
+      </c>
+      <c r="D570" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A571" t="s">
+        <v>6</v>
+      </c>
+      <c r="B571">
+        <v>22787</v>
+      </c>
+      <c r="C571" t="s">
+        <v>247</v>
+      </c>
+      <c r="D571" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A572" t="s">
+        <v>6</v>
+      </c>
+      <c r="B572">
+        <v>22779</v>
+      </c>
+      <c r="C572" t="s">
+        <v>247</v>
+      </c>
+      <c r="D572" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A573" t="s">
+        <v>6</v>
+      </c>
+      <c r="B573">
+        <v>22780</v>
+      </c>
+      <c r="C573" t="s">
+        <v>247</v>
+      </c>
+      <c r="D573" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A574" t="s">
+        <v>6</v>
+      </c>
+      <c r="B574">
+        <v>23172</v>
+      </c>
+      <c r="C574" t="s">
+        <v>247</v>
+      </c>
+      <c r="D574" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A575" t="s">
+        <v>6</v>
+      </c>
+      <c r="B575">
+        <v>23731</v>
+      </c>
+      <c r="C575" t="s">
+        <v>247</v>
+      </c>
+      <c r="D575" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A576" t="s">
+        <v>6</v>
+      </c>
+      <c r="B576">
+        <v>22781</v>
+      </c>
+      <c r="C576" t="s">
+        <v>247</v>
+      </c>
+      <c r="D576" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A577" t="s">
+        <v>6</v>
+      </c>
+      <c r="B577">
+        <v>22783</v>
+      </c>
+      <c r="C577" t="s">
+        <v>247</v>
+      </c>
+      <c r="D577" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A578" t="s">
+        <v>6</v>
+      </c>
+      <c r="B578">
+        <v>22782</v>
+      </c>
+      <c r="C578" t="s">
+        <v>247</v>
+      </c>
+      <c r="D578" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A579" t="s">
+        <v>6</v>
+      </c>
+      <c r="B579">
+        <v>23599</v>
+      </c>
+      <c r="C579" t="s">
+        <v>247</v>
+      </c>
+      <c r="D579" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A580" t="s">
+        <v>6</v>
+      </c>
+      <c r="B580">
+        <v>22784</v>
+      </c>
+      <c r="C580" t="s">
+        <v>247</v>
+      </c>
+      <c r="D580" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A581" t="s">
+        <v>6</v>
+      </c>
+      <c r="B581">
+        <v>22800</v>
+      </c>
+      <c r="C581" t="s">
+        <v>247</v>
+      </c>
+      <c r="D581" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A582" t="s">
+        <v>6</v>
+      </c>
+      <c r="B582">
+        <v>22801</v>
+      </c>
+      <c r="C582" t="s">
+        <v>247</v>
+      </c>
+      <c r="D582" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A583" t="s">
+        <v>6</v>
+      </c>
+      <c r="B583">
+        <v>22802</v>
+      </c>
+      <c r="C583" t="s">
+        <v>247</v>
+      </c>
+      <c r="D583" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A584" t="s">
+        <v>28</v>
+      </c>
+      <c r="B584">
+        <v>21559</v>
+      </c>
+      <c r="C584" t="s">
+        <v>247</v>
+      </c>
+      <c r="D584" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A585" t="s">
+        <v>15</v>
+      </c>
+      <c r="B585">
+        <v>22803</v>
+      </c>
+      <c r="C585" t="s">
+        <v>247</v>
+      </c>
+      <c r="D585" t="s">
+        <v>485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Files/Controls.xlsx
+++ b/Files/Controls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\NVDA\VismaAdministration\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otto\Dokument\src\VismaAdministration-NVDAAddOn\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7CBC2-89B6-4BAE-B305-F7AE47CCEA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620CB8C0-B0FB-4DDA-8CE6-71971E776649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="16876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="488">
   <si>
     <t>WindowClassName</t>
   </si>
@@ -1491,6 +1491,12 @@
   </si>
   <si>
     <t>Spårningsval</t>
+  </si>
+  <si>
+    <t>Aktivering av programvaran</t>
+  </si>
+  <si>
+    <t>Lösenord</t>
   </si>
 </sst>
 </file>
@@ -1534,6 +1540,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1550,10 +1624,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="3D3D3D"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFAEF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1808,19 +1882,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E585"/>
+  <dimension ref="A1:E589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D585" sqref="A1:E585"/>
+    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="D589" sqref="D589"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="3" max="3" width="26.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.04296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1837,7 +1911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1851,7 +1925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1865,7 +1939,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1879,7 +1953,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1893,7 +1967,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1907,7 +1981,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1921,7 +1995,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1935,7 +2009,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1949,7 +2023,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1963,7 +2037,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1977,7 +2051,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1991,7 +2065,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2005,7 +2079,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2019,7 +2093,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2033,7 +2107,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2047,7 +2121,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2061,7 +2135,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2075,7 +2149,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2089,7 +2163,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2103,7 +2177,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2117,7 +2191,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2131,7 +2205,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2145,7 +2219,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" t="e">
         <v>#NAME?</v>
       </c>
@@ -2159,7 +2233,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2173,7 +2247,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2187,7 +2261,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2198,7 +2272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2220,7 +2294,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2231,7 +2305,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2245,7 +2319,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -2256,7 +2330,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2270,7 +2344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2281,7 +2355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2292,7 +2366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2303,7 +2377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -2314,7 +2388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2325,7 +2399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2336,7 +2410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2347,7 +2421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2358,7 +2432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -2369,7 +2443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2380,7 +2454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2391,7 +2465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2402,7 +2476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2413,7 +2487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2424,7 +2498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2435,7 +2509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2446,7 +2520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2457,7 +2531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +2542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2479,7 +2553,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2493,7 +2567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2504,7 +2578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2515,7 +2589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2526,7 +2600,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2537,7 +2611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2548,7 +2622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2562,7 +2636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2573,7 +2647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2584,7 +2658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -2595,7 +2669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -2617,7 +2691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -2628,7 +2702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -2639,7 +2713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2653,7 +2727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2670,7 +2744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2684,7 +2758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -2695,7 +2769,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2706,7 +2780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2717,7 +2791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -2728,7 +2802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2739,7 +2813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2750,7 +2824,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2761,7 +2835,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2772,7 +2846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2783,7 +2857,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2794,7 +2868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2805,7 +2879,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2816,7 +2890,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2830,7 +2904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -2844,7 +2918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -2858,7 +2932,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -2872,7 +2946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2886,7 +2960,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2900,7 +2974,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2911,7 +2985,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2922,7 +2996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2933,7 +3007,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -2944,7 +3018,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2955,7 +3029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -2966,7 +3040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -2977,7 +3051,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2988,7 +3062,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -2999,7 +3073,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -3010,7 +3084,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -3021,7 +3095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -3032,7 +3106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -3046,7 +3120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -3060,7 +3134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -3071,7 +3145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -3082,7 +3156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -3093,7 +3167,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -3104,7 +3178,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -3118,7 +3192,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -3132,7 +3206,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3143,7 +3217,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -3157,7 +3231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -3168,7 +3242,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -3179,7 +3253,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -3190,7 +3264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -3201,7 +3275,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3212,7 +3286,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3223,7 +3297,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -3234,7 +3308,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -3245,7 +3319,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -3256,7 +3330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -3267,7 +3341,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -3278,7 +3352,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -3289,7 +3363,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -3300,7 +3374,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -3311,7 +3385,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -3322,7 +3396,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -3333,7 +3407,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -3344,7 +3418,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -3355,7 +3429,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -3366,7 +3440,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -3377,7 +3451,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -3388,7 +3462,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -3399,7 +3473,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -3410,7 +3484,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -3421,7 +3495,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -3432,7 +3506,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -3443,7 +3517,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3454,7 +3528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -3465,7 +3539,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -3476,7 +3550,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -3487,7 +3561,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -3498,7 +3572,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -3509,7 +3583,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -3520,7 +3594,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -3531,7 +3605,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -3542,7 +3616,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -3553,7 +3627,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -3570,7 +3644,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -3584,7 +3658,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -3595,7 +3669,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -3606,7 +3680,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -3617,7 +3691,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -3628,7 +3702,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -3639,7 +3713,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -3650,7 +3724,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -3661,7 +3735,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -3672,7 +3746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -3683,7 +3757,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -3694,7 +3768,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -3705,7 +3779,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +3790,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -3727,7 +3801,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -3738,7 +3812,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -3749,7 +3823,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -3760,7 +3834,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -3777,7 +3851,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -3791,7 +3865,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -3805,7 +3879,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -3819,7 +3893,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -3833,7 +3907,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -3847,7 +3921,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -3858,7 +3932,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -3869,7 +3943,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -3880,7 +3954,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -3891,7 +3965,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -3905,7 +3979,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -3919,7 +3993,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -3930,7 +4004,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -3941,7 +4015,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -3952,7 +4026,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -3963,7 +4037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -3974,7 +4048,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -3985,7 +4059,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -3996,7 +4070,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -4007,7 +4081,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -4018,7 +4092,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -4029,7 +4103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -4040,7 +4114,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -4051,7 +4125,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -4062,7 +4136,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -4073,7 +4147,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -4084,7 +4158,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>6</v>
       </c>
@@ -4095,7 +4169,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -4106,7 +4180,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -4117,7 +4191,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -4128,7 +4202,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -4139,7 +4213,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -4150,7 +4224,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -4161,7 +4235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -4172,7 +4246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -4183,7 +4257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -4194,7 +4268,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -4205,7 +4279,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -4216,7 +4290,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -4227,7 +4301,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -4238,7 +4312,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -4249,7 +4323,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -4260,7 +4334,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -4271,7 +4345,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -4282,7 +4356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -4293,7 +4367,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -4304,7 +4378,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -4315,7 +4389,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -4326,7 +4400,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -4337,7 +4411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -4348,7 +4422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -4359,7 +4433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -4370,7 +4444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -4381,7 +4455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -4392,7 +4466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -4403,7 +4477,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -4417,7 +4491,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -4428,7 +4502,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -4439,7 +4513,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -4450,7 +4524,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -4461,7 +4535,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -4472,7 +4546,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -4483,7 +4557,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -4494,7 +4568,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -4505,7 +4579,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -4516,7 +4590,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
         <v>19</v>
       </c>
@@ -4527,7 +4601,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
         <v>19</v>
       </c>
@@ -4541,7 +4615,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -4552,7 +4626,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -4569,7 +4643,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -4586,7 +4660,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -4600,7 +4674,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -4614,7 +4688,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -4625,7 +4699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -4639,7 +4713,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -4653,7 +4727,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -4664,7 +4738,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -4675,7 +4749,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -4686,7 +4760,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -4697,7 +4771,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -4708,7 +4782,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -4719,7 +4793,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -4730,7 +4804,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -4741,7 +4815,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -4752,7 +4826,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -4763,7 +4837,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -4774,7 +4848,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -4785,7 +4859,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -4796,7 +4870,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -4807,7 +4881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -4818,7 +4892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -4829,7 +4903,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -4840,7 +4914,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -4851,7 +4925,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -4862,7 +4936,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -4873,7 +4947,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -4884,7 +4958,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -4895,7 +4969,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -4906,7 +4980,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -4917,7 +4991,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -4928,7 +5002,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -4939,7 +5013,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -4950,7 +5024,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -4961,7 +5035,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -4972,7 +5046,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -4983,7 +5057,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -4994,7 +5068,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -5008,7 +5082,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -5022,7 +5096,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -5036,7 +5110,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -5050,7 +5124,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -5064,7 +5138,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -5078,7 +5152,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -5092,7 +5166,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -5106,7 +5180,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -5120,7 +5194,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -5134,7 +5208,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A281" t="s">
         <v>6</v>
       </c>
@@ -5148,7 +5222,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -5162,7 +5236,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A283" t="s">
         <v>15</v>
       </c>
@@ -5176,7 +5250,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -5187,7 +5261,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -5198,7 +5272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -5212,7 +5286,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -5223,7 +5297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A288" t="s">
         <v>6</v>
       </c>
@@ -5234,7 +5308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -5245,7 +5319,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A290" t="s">
         <v>6</v>
       </c>
@@ -5256,7 +5330,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -5267,7 +5341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -5278,7 +5352,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -5289,7 +5363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -5300,7 +5374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A295" t="s">
         <v>6</v>
       </c>
@@ -5311,7 +5385,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A296" t="s">
         <v>6</v>
       </c>
@@ -5322,7 +5396,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A297" t="s">
         <v>6</v>
       </c>
@@ -5333,7 +5407,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A298" t="s">
         <v>6</v>
       </c>
@@ -5344,7 +5418,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -5355,7 +5429,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -5366,7 +5440,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -5377,7 +5451,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A302" t="s">
         <v>6</v>
       </c>
@@ -5388,7 +5462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A303" t="s">
         <v>6</v>
       </c>
@@ -5399,7 +5473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -5410,7 +5484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -5421,7 +5495,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -5432,7 +5506,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -5446,7 +5520,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -5457,7 +5531,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -5468,7 +5542,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -5479,7 +5553,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -5490,7 +5564,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A312" t="s">
         <v>15</v>
       </c>
@@ -5501,7 +5575,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -5512,7 +5586,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A314" t="s">
         <v>19</v>
       </c>
@@ -5526,7 +5600,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A315" t="s">
         <v>19</v>
       </c>
@@ -5537,7 +5611,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -5548,7 +5622,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A317" t="s">
         <v>6</v>
       </c>
@@ -5562,7 +5636,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -5573,7 +5647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A319" t="s">
         <v>6</v>
       </c>
@@ -5584,7 +5658,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A320" t="s">
         <v>6</v>
       </c>
@@ -5598,7 +5672,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A321" t="s">
         <v>6</v>
       </c>
@@ -5609,7 +5683,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -5620,7 +5694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A323" t="s">
         <v>6</v>
       </c>
@@ -5631,7 +5705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A324" t="s">
         <v>6</v>
       </c>
@@ -5642,7 +5716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A325" t="s">
         <v>6</v>
       </c>
@@ -5653,7 +5727,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A326" t="s">
         <v>6</v>
       </c>
@@ -5664,7 +5738,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A327" t="s">
         <v>6</v>
       </c>
@@ -5675,7 +5749,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A328" t="s">
         <v>6</v>
       </c>
@@ -5686,7 +5760,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -5697,7 +5771,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A330" t="s">
         <v>6</v>
       </c>
@@ -5708,7 +5782,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A331" t="s">
         <v>6</v>
       </c>
@@ -5719,7 +5793,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A332" t="s">
         <v>6</v>
       </c>
@@ -5730,7 +5804,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A333" t="s">
         <v>6</v>
       </c>
@@ -5741,7 +5815,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -5752,7 +5826,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A335" t="s">
         <v>6</v>
       </c>
@@ -5766,7 +5840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A336" t="s">
         <v>6</v>
       </c>
@@ -5780,7 +5854,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A337" t="s">
         <v>6</v>
       </c>
@@ -5794,7 +5868,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A338" t="s">
         <v>6</v>
       </c>
@@ -5808,7 +5882,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A339" t="s">
         <v>6</v>
       </c>
@@ -5822,7 +5896,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A340" t="s">
         <v>6</v>
       </c>
@@ -5836,7 +5910,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A341" t="s">
         <v>6</v>
       </c>
@@ -5850,7 +5924,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A342" t="s">
         <v>6</v>
       </c>
@@ -5864,7 +5938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A343" t="s">
         <v>6</v>
       </c>
@@ -5878,7 +5952,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A344" t="s">
         <v>6</v>
       </c>
@@ -5892,7 +5966,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A345" t="s">
         <v>6</v>
       </c>
@@ -5906,7 +5980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A346" t="s">
         <v>6</v>
       </c>
@@ -5920,7 +5994,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A347" t="s">
         <v>6</v>
       </c>
@@ -5934,7 +6008,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -5948,7 +6022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A349" t="s">
         <v>6</v>
       </c>
@@ -5962,7 +6036,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A350" t="s">
         <v>6</v>
       </c>
@@ -5976,7 +6050,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -5990,7 +6064,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A352" t="s">
         <v>6</v>
       </c>
@@ -6004,7 +6078,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A353" t="s">
         <v>6</v>
       </c>
@@ -6018,7 +6092,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A354" t="s">
         <v>6</v>
       </c>
@@ -6032,7 +6106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A355" t="s">
         <v>15</v>
       </c>
@@ -6046,7 +6120,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A356" t="s">
         <v>15</v>
       </c>
@@ -6060,7 +6134,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A357" t="s">
         <v>6</v>
       </c>
@@ -6074,7 +6148,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A358" t="s">
         <v>6</v>
       </c>
@@ -6088,7 +6162,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A359" t="s">
         <v>15</v>
       </c>
@@ -6102,7 +6176,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A360" t="s">
         <v>6</v>
       </c>
@@ -6116,7 +6190,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A361" t="s">
         <v>15</v>
       </c>
@@ -6130,7 +6204,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A362" t="s">
         <v>6</v>
       </c>
@@ -6144,7 +6218,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A363" t="s">
         <v>15</v>
       </c>
@@ -6158,7 +6232,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A364" t="s">
         <v>6</v>
       </c>
@@ -6172,7 +6246,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A365" t="s">
         <v>15</v>
       </c>
@@ -6186,7 +6260,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A366" t="s">
         <v>6</v>
       </c>
@@ -6200,7 +6274,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A367" t="s">
         <v>15</v>
       </c>
@@ -6214,7 +6288,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A368" t="s">
         <v>6</v>
       </c>
@@ -6228,7 +6302,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A369" t="s">
         <v>6</v>
       </c>
@@ -6242,7 +6316,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A370" t="s">
         <v>15</v>
       </c>
@@ -6256,7 +6330,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A371" t="s">
         <v>6</v>
       </c>
@@ -6270,7 +6344,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A372" t="s">
         <v>6</v>
       </c>
@@ -6284,7 +6358,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A373" t="s">
         <v>6</v>
       </c>
@@ -6298,7 +6372,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A374" t="s">
         <v>6</v>
       </c>
@@ -6312,7 +6386,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A375" t="s">
         <v>15</v>
       </c>
@@ -6326,7 +6400,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A376" t="s">
         <v>6</v>
       </c>
@@ -6340,7 +6414,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A377" t="s">
         <v>6</v>
       </c>
@@ -6354,7 +6428,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A378" t="s">
         <v>6</v>
       </c>
@@ -6368,7 +6442,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A379" t="s">
         <v>6</v>
       </c>
@@ -6382,7 +6456,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A380" t="s">
         <v>6</v>
       </c>
@@ -6396,7 +6470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A381" t="s">
         <v>19</v>
       </c>
@@ -6410,7 +6484,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A382" t="s">
         <v>19</v>
       </c>
@@ -6424,7 +6498,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A383" t="s">
         <v>19</v>
       </c>
@@ -6438,7 +6512,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A384" t="s">
         <v>19</v>
       </c>
@@ -6452,7 +6526,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A385" t="s">
         <v>19</v>
       </c>
@@ -6466,7 +6540,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A386" t="s">
         <v>19</v>
       </c>
@@ -6480,7 +6554,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A387" t="s">
         <v>19</v>
       </c>
@@ -6494,7 +6568,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A388" t="s">
         <v>19</v>
       </c>
@@ -6508,7 +6582,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A389" t="s">
         <v>19</v>
       </c>
@@ -6522,7 +6596,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A390" t="s">
         <v>19</v>
       </c>
@@ -6536,7 +6610,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A391" t="s">
         <v>19</v>
       </c>
@@ -6550,7 +6624,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A392" t="s">
         <v>19</v>
       </c>
@@ -6564,7 +6638,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A393" t="s">
         <v>19</v>
       </c>
@@ -6578,7 +6652,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A394" t="s">
         <v>19</v>
       </c>
@@ -6592,7 +6666,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A395" t="s">
         <v>19</v>
       </c>
@@ -6606,7 +6680,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A396" t="s">
         <v>19</v>
       </c>
@@ -6620,7 +6694,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A397" t="s">
         <v>19</v>
       </c>
@@ -6634,7 +6708,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A398" t="s">
         <v>19</v>
       </c>
@@ -6648,7 +6722,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A399" t="s">
         <v>19</v>
       </c>
@@ -6662,7 +6736,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A400" t="s">
         <v>19</v>
       </c>
@@ -6676,7 +6750,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A401" t="s">
         <v>19</v>
       </c>
@@ -6690,7 +6764,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A402" t="s">
         <v>19</v>
       </c>
@@ -6704,7 +6778,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A403" t="s">
         <v>19</v>
       </c>
@@ -6718,7 +6792,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A404" t="s">
         <v>19</v>
       </c>
@@ -6732,7 +6806,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A405" t="s">
         <v>19</v>
       </c>
@@ -6746,7 +6820,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A406" t="s">
         <v>19</v>
       </c>
@@ -6760,7 +6834,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A407" t="s">
         <v>19</v>
       </c>
@@ -6774,7 +6848,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A408" t="s">
         <v>19</v>
       </c>
@@ -6788,7 +6862,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A409" t="s">
         <v>19</v>
       </c>
@@ -6802,7 +6876,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A410" t="s">
         <v>19</v>
       </c>
@@ -6816,7 +6890,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A411" t="s">
         <v>19</v>
       </c>
@@ -6830,7 +6904,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A412" t="s">
         <v>19</v>
       </c>
@@ -6844,7 +6918,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A413" t="s">
         <v>19</v>
       </c>
@@ -6858,7 +6932,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A414" t="s">
         <v>19</v>
       </c>
@@ -6872,7 +6946,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A415" t="s">
         <v>19</v>
       </c>
@@ -6886,7 +6960,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A416" t="s">
         <v>19</v>
       </c>
@@ -6900,7 +6974,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A417" t="s">
         <v>19</v>
       </c>
@@ -6914,7 +6988,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A418" t="s">
         <v>19</v>
       </c>
@@ -6928,7 +7002,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A419" t="s">
         <v>19</v>
       </c>
@@ -6942,7 +7016,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A420" t="s">
         <v>19</v>
       </c>
@@ -6956,7 +7030,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A421" t="s">
         <v>19</v>
       </c>
@@ -6970,7 +7044,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A422" t="s">
         <v>19</v>
       </c>
@@ -6984,7 +7058,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A423" t="s">
         <v>19</v>
       </c>
@@ -6998,7 +7072,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A424" t="s">
         <v>19</v>
       </c>
@@ -7012,7 +7086,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A425" t="s">
         <v>19</v>
       </c>
@@ -7026,7 +7100,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A426" t="s">
         <v>19</v>
       </c>
@@ -7040,7 +7114,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A427" t="s">
         <v>19</v>
       </c>
@@ -7054,7 +7128,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A428" t="s">
         <v>19</v>
       </c>
@@ -7068,7 +7142,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A429" t="s">
         <v>19</v>
       </c>
@@ -7082,7 +7156,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A430" t="s">
         <v>6</v>
       </c>
@@ -7096,7 +7170,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A431" t="s">
         <v>19</v>
       </c>
@@ -7110,7 +7184,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A432" t="s">
         <v>6</v>
       </c>
@@ -7124,7 +7198,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A433" t="s">
         <v>19</v>
       </c>
@@ -7138,7 +7212,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A434" t="s">
         <v>6</v>
       </c>
@@ -7152,7 +7226,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A435" t="s">
         <v>19</v>
       </c>
@@ -7166,7 +7240,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A436" t="s">
         <v>6</v>
       </c>
@@ -7180,7 +7254,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A437" t="s">
         <v>19</v>
       </c>
@@ -7194,7 +7268,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A438" t="s">
         <v>6</v>
       </c>
@@ -7208,7 +7282,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A439" t="s">
         <v>19</v>
       </c>
@@ -7222,7 +7296,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A440" t="s">
         <v>6</v>
       </c>
@@ -7236,7 +7310,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A441" t="s">
         <v>19</v>
       </c>
@@ -7250,7 +7324,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A442" t="s">
         <v>6</v>
       </c>
@@ -7264,7 +7338,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A443" t="s">
         <v>19</v>
       </c>
@@ -7278,7 +7352,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A444" t="s">
         <v>6</v>
       </c>
@@ -7292,7 +7366,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A445" t="s">
         <v>19</v>
       </c>
@@ -7306,7 +7380,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A446" t="s">
         <v>6</v>
       </c>
@@ -7320,7 +7394,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A447" t="s">
         <v>19</v>
       </c>
@@ -7334,7 +7408,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A448" t="s">
         <v>19</v>
       </c>
@@ -7348,7 +7422,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A449" t="s">
         <v>19</v>
       </c>
@@ -7362,7 +7436,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A450" t="s">
         <v>19</v>
       </c>
@@ -7376,7 +7450,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A451" t="s">
         <v>19</v>
       </c>
@@ -7390,7 +7464,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A452" t="s">
         <v>6</v>
       </c>
@@ -7404,7 +7478,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A453" t="s">
         <v>6</v>
       </c>
@@ -7418,7 +7492,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A454" t="s">
         <v>28</v>
       </c>
@@ -7432,7 +7506,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A455" t="s">
         <v>28</v>
       </c>
@@ -7446,7 +7520,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A456" t="s">
         <v>28</v>
       </c>
@@ -7460,7 +7534,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A457" t="s">
         <v>19</v>
       </c>
@@ -7474,7 +7548,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A458" t="s">
         <v>19</v>
       </c>
@@ -7488,7 +7562,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A459" t="s">
         <v>19</v>
       </c>
@@ -7502,7 +7576,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A460" t="s">
         <v>19</v>
       </c>
@@ -7516,7 +7590,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A461" t="s">
         <v>19</v>
       </c>
@@ -7530,7 +7604,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A462" t="s">
         <v>19</v>
       </c>
@@ -7544,7 +7618,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A463" t="s">
         <v>19</v>
       </c>
@@ -7558,7 +7632,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A464" t="s">
         <v>19</v>
       </c>
@@ -7572,7 +7646,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A465" t="s">
         <v>28</v>
       </c>
@@ -7586,7 +7660,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A466" t="s">
         <v>6</v>
       </c>
@@ -7600,7 +7674,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A467" t="s">
         <v>6</v>
       </c>
@@ -7614,7 +7688,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A468" t="s">
         <v>28</v>
       </c>
@@ -7628,7 +7702,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A469" t="s">
         <v>28</v>
       </c>
@@ -7642,7 +7716,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A470" t="s">
         <v>6</v>
       </c>
@@ -7656,7 +7730,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A471" t="s">
         <v>28</v>
       </c>
@@ -7670,7 +7744,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A472" t="s">
         <v>28</v>
       </c>
@@ -7684,7 +7758,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A473" t="s">
         <v>6</v>
       </c>
@@ -7698,7 +7772,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A474" t="s">
         <v>6</v>
       </c>
@@ -7712,7 +7786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A475" t="s">
         <v>6</v>
       </c>
@@ -7726,7 +7800,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A476" t="s">
         <v>6</v>
       </c>
@@ -7740,7 +7814,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A477" t="s">
         <v>6</v>
       </c>
@@ -7754,7 +7828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A478" t="s">
         <v>6</v>
       </c>
@@ -7768,7 +7842,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A479" t="s">
         <v>6</v>
       </c>
@@ -7782,7 +7856,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A480" t="s">
         <v>6</v>
       </c>
@@ -7796,7 +7870,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A481" t="s">
         <v>6</v>
       </c>
@@ -7810,7 +7884,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A482" t="s">
         <v>6</v>
       </c>
@@ -7824,7 +7898,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A483" t="s">
         <v>6</v>
       </c>
@@ -7838,7 +7912,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A484" t="s">
         <v>6</v>
       </c>
@@ -7852,7 +7926,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A485" t="s">
         <v>6</v>
       </c>
@@ -7866,7 +7940,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A486" t="s">
         <v>15</v>
       </c>
@@ -7880,7 +7954,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A487" t="s">
         <v>6</v>
       </c>
@@ -7894,7 +7968,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A488" t="s">
         <v>6</v>
       </c>
@@ -7908,7 +7982,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A489" t="s">
         <v>6</v>
       </c>
@@ -7922,7 +7996,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A490" t="s">
         <v>6</v>
       </c>
@@ -7936,7 +8010,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A491" t="s">
         <v>6</v>
       </c>
@@ -7950,7 +8024,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A492" t="s">
         <v>6</v>
       </c>
@@ -7964,7 +8038,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A493" t="s">
         <v>6</v>
       </c>
@@ -7978,7 +8052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A494" t="s">
         <v>6</v>
       </c>
@@ -7992,7 +8066,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A495" t="s">
         <v>6</v>
       </c>
@@ -8006,7 +8080,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A496" t="s">
         <v>6</v>
       </c>
@@ -8020,7 +8094,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A497" t="s">
         <v>6</v>
       </c>
@@ -8034,7 +8108,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A498" t="s">
         <v>6</v>
       </c>
@@ -8048,7 +8122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A499" t="s">
         <v>6</v>
       </c>
@@ -8062,7 +8136,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A500" t="s">
         <v>6</v>
       </c>
@@ -8076,7 +8150,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A501" t="s">
         <v>6</v>
       </c>
@@ -8090,7 +8164,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A502" t="s">
         <v>28</v>
       </c>
@@ -8104,7 +8178,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A503" t="s">
         <v>28</v>
       </c>
@@ -8118,7 +8192,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A504" t="s">
         <v>28</v>
       </c>
@@ -8129,7 +8203,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A505" t="s">
         <v>6</v>
       </c>
@@ -8143,7 +8217,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A506" t="s">
         <v>6</v>
       </c>
@@ -8157,7 +8231,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A507" t="s">
         <v>6</v>
       </c>
@@ -8171,7 +8245,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A508" t="s">
         <v>6</v>
       </c>
@@ -8185,7 +8259,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A509" t="s">
         <v>6</v>
       </c>
@@ -8199,7 +8273,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A510" t="s">
         <v>6</v>
       </c>
@@ -8213,7 +8287,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A511" t="s">
         <v>6</v>
       </c>
@@ -8227,7 +8301,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A512" t="s">
         <v>6</v>
       </c>
@@ -8241,7 +8315,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A513" t="s">
         <v>6</v>
       </c>
@@ -8255,7 +8329,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A514" t="s">
         <v>6</v>
       </c>
@@ -8269,7 +8343,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A515" t="s">
         <v>6</v>
       </c>
@@ -8283,7 +8357,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A516" t="s">
         <v>6</v>
       </c>
@@ -8297,7 +8371,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A517" t="s">
         <v>6</v>
       </c>
@@ -8311,7 +8385,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A518" t="s">
         <v>6</v>
       </c>
@@ -8325,7 +8399,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A519" t="s">
         <v>6</v>
       </c>
@@ -8339,7 +8413,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A520" t="s">
         <v>6</v>
       </c>
@@ -8353,7 +8427,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A521" t="s">
         <v>6</v>
       </c>
@@ -8367,7 +8441,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A522" t="s">
         <v>6</v>
       </c>
@@ -8381,7 +8455,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A523" t="s">
         <v>6</v>
       </c>
@@ -8395,7 +8469,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A524" t="s">
         <v>6</v>
       </c>
@@ -8409,7 +8483,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A525" t="s">
         <v>6</v>
       </c>
@@ -8423,7 +8497,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A526" t="s">
         <v>6</v>
       </c>
@@ -8437,7 +8511,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A527" t="s">
         <v>6</v>
       </c>
@@ -8451,7 +8525,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A528" t="s">
         <v>6</v>
       </c>
@@ -8465,7 +8539,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A529" t="s">
         <v>6</v>
       </c>
@@ -8479,7 +8553,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A530" t="s">
         <v>6</v>
       </c>
@@ -8493,7 +8567,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A531" t="s">
         <v>6</v>
       </c>
@@ -8507,7 +8581,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A532" t="s">
         <v>6</v>
       </c>
@@ -8521,7 +8595,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A533" t="s">
         <v>6</v>
       </c>
@@ -8535,7 +8609,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A534" t="s">
         <v>6</v>
       </c>
@@ -8549,7 +8623,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A535" t="s">
         <v>6</v>
       </c>
@@ -8563,7 +8637,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A536" t="s">
         <v>6</v>
       </c>
@@ -8577,7 +8651,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A537" t="s">
         <v>6</v>
       </c>
@@ -8591,7 +8665,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A538" t="s">
         <v>6</v>
       </c>
@@ -8605,7 +8679,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A539" t="s">
         <v>6</v>
       </c>
@@ -8619,7 +8693,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A540" t="s">
         <v>6</v>
       </c>
@@ -8633,7 +8707,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A541" t="s">
         <v>6</v>
       </c>
@@ -8647,7 +8721,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A542" t="s">
         <v>6</v>
       </c>
@@ -8661,7 +8735,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A543" t="s">
         <v>6</v>
       </c>
@@ -8675,7 +8749,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A544" t="s">
         <v>6</v>
       </c>
@@ -8689,7 +8763,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A545" t="s">
         <v>28</v>
       </c>
@@ -8703,7 +8777,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A546" t="s">
         <v>28</v>
       </c>
@@ -8717,7 +8791,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A547" t="s">
         <v>28</v>
       </c>
@@ -8731,7 +8805,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A548" t="s">
         <v>6</v>
       </c>
@@ -8745,7 +8819,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A549" t="s">
         <v>6</v>
       </c>
@@ -8759,7 +8833,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A550" t="s">
         <v>6</v>
       </c>
@@ -8773,7 +8847,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A551" t="s">
         <v>6</v>
       </c>
@@ -8787,7 +8861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A552" t="s">
         <v>6</v>
       </c>
@@ -8801,7 +8875,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A553" t="s">
         <v>6</v>
       </c>
@@ -8815,7 +8889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A554" t="s">
         <v>6</v>
       </c>
@@ -8829,7 +8903,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A555" t="s">
         <v>6</v>
       </c>
@@ -8843,7 +8917,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A556" t="s">
         <v>6</v>
       </c>
@@ -8857,7 +8931,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A557" t="s">
         <v>6</v>
       </c>
@@ -8871,7 +8945,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A558" t="s">
         <v>6</v>
       </c>
@@ -8885,7 +8959,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A559" t="s">
         <v>19</v>
       </c>
@@ -8899,7 +8973,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A560" t="s">
         <v>6</v>
       </c>
@@ -8913,7 +8987,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A561" t="s">
         <v>6</v>
       </c>
@@ -8927,7 +9001,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A562" t="s">
         <v>6</v>
       </c>
@@ -8941,7 +9015,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A563" t="s">
         <v>6</v>
       </c>
@@ -8955,7 +9029,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A564" t="s">
         <v>6</v>
       </c>
@@ -8969,7 +9043,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A565" t="s">
         <v>6</v>
       </c>
@@ -8983,7 +9057,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A566" t="s">
         <v>6</v>
       </c>
@@ -8997,7 +9071,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A567" t="s">
         <v>6</v>
       </c>
@@ -9011,7 +9085,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A568" t="s">
         <v>6</v>
       </c>
@@ -9025,7 +9099,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A569" t="s">
         <v>6</v>
       </c>
@@ -9039,7 +9113,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A570" t="s">
         <v>6</v>
       </c>
@@ -9053,7 +9127,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A571" t="s">
         <v>6</v>
       </c>
@@ -9067,7 +9141,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A572" t="s">
         <v>6</v>
       </c>
@@ -9081,7 +9155,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A573" t="s">
         <v>6</v>
       </c>
@@ -9095,7 +9169,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A574" t="s">
         <v>6</v>
       </c>
@@ -9109,7 +9183,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A575" t="s">
         <v>6</v>
       </c>
@@ -9123,7 +9197,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A576" t="s">
         <v>6</v>
       </c>
@@ -9137,7 +9211,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A577" t="s">
         <v>6</v>
       </c>
@@ -9151,7 +9225,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A578" t="s">
         <v>6</v>
       </c>
@@ -9165,7 +9239,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A579" t="s">
         <v>6</v>
       </c>
@@ -9179,7 +9253,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A580" t="s">
         <v>6</v>
       </c>
@@ -9193,7 +9267,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A581" t="s">
         <v>6</v>
       </c>
@@ -9207,7 +9281,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A582" t="s">
         <v>6</v>
       </c>
@@ -9221,7 +9295,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A583" t="s">
         <v>6</v>
       </c>
@@ -9235,7 +9309,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A584" t="s">
         <v>28</v>
       </c>
@@ -9249,7 +9323,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A585" t="s">
         <v>15</v>
       </c>
@@ -9261,6 +9335,62 @@
       </c>
       <c r="D585" t="s">
         <v>485</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A586" t="s">
+        <v>6</v>
+      </c>
+      <c r="B586">
+        <v>2603</v>
+      </c>
+      <c r="C586" t="s">
+        <v>486</v>
+      </c>
+      <c r="D586" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A587" t="s">
+        <v>6</v>
+      </c>
+      <c r="B587">
+        <v>2606</v>
+      </c>
+      <c r="C587" t="s">
+        <v>486</v>
+      </c>
+      <c r="D587" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A588" t="s">
+        <v>6</v>
+      </c>
+      <c r="B588">
+        <v>23415</v>
+      </c>
+      <c r="C588" t="s">
+        <v>487</v>
+      </c>
+      <c r="D588" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A589" t="s">
+        <v>6</v>
+      </c>
+      <c r="B589">
+        <v>23416</v>
+      </c>
+      <c r="C589" t="s">
+        <v>487</v>
+      </c>
+      <c r="D589" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
